--- a/数据预处理/样本均衡后svm数据.xlsx
+++ b/数据预处理/样本均衡后svm数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.551643309632389</v>
+        <v>2.313697319004641</v>
       </c>
       <c r="B2" t="n">
-        <v>2.162285140441991</v>
+        <v>2.312667376305897</v>
       </c>
       <c r="C2" t="n">
-        <v>2.547005635502636</v>
+        <v>2.236965736994207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.376533503457402</v>
+        <v>2.365710798995343</v>
       </c>
       <c r="B3" t="n">
-        <v>2.3072412834097</v>
+        <v>2.352701586198572</v>
       </c>
       <c r="C3" t="n">
-        <v>2.281021676800193</v>
+        <v>2.274794787336025</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.221157721469343</v>
+        <v>2.349604753496347</v>
       </c>
       <c r="B4" t="n">
-        <v>2.214190127350072</v>
+        <v>2.331471502332587</v>
       </c>
       <c r="C4" t="n">
-        <v>2.343020609386757</v>
+        <v>2.244523954960424</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.266260650399048</v>
+        <v>2.354265845763388</v>
       </c>
       <c r="B5" t="n">
-        <v>1.814185975788112</v>
+        <v>2.284682408937367</v>
       </c>
       <c r="C5" t="n">
-        <v>2.20974604115071</v>
+        <v>2.217881440658418</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.574899437264706</v>
+        <v>2.398040508045761</v>
       </c>
       <c r="B6" t="n">
-        <v>2.155926254576242</v>
+        <v>2.367100636063401</v>
       </c>
       <c r="C6" t="n">
-        <v>2.534411147541336</v>
+        <v>2.275126926595267</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.595867764491026</v>
+        <v>2.351164147815132</v>
       </c>
       <c r="B7" t="n">
-        <v>2.333097234459558</v>
+        <v>2.333697920668308</v>
       </c>
       <c r="C7" t="n">
-        <v>2.465638850815931</v>
+        <v>2.219261689910671</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.549967665493523</v>
+        <v>2.668696768080722</v>
       </c>
       <c r="B8" t="n">
-        <v>2.384387864962223</v>
+        <v>2.266755071717981</v>
       </c>
       <c r="C8" t="n">
-        <v>2.339390365624197</v>
+        <v>2.587637637316047</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.653567995734028</v>
+        <v>2.680791344062093</v>
       </c>
       <c r="B9" t="n">
-        <v>2.371018999534573</v>
+        <v>2.279357079090075</v>
       </c>
       <c r="C9" t="n">
-        <v>2.361898638581837</v>
+        <v>2.599422891957974</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.231534220418264</v>
+        <v>2.669849419843462</v>
       </c>
       <c r="B10" t="n">
-        <v>2.259211807444122</v>
+        <v>2.25603562765839</v>
       </c>
       <c r="C10" t="n">
-        <v>2.260876182533185</v>
+        <v>2.580561892625862</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.644913062395452</v>
+        <v>2.605345719359669</v>
       </c>
       <c r="B11" t="n">
-        <v>2.509964111462115</v>
+        <v>2.2988503891766</v>
       </c>
       <c r="C11" t="n">
-        <v>2.193902485992918</v>
+        <v>2.57496712066068</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.427791014242178</v>
+        <v>2.634014511638621</v>
       </c>
       <c r="B12" t="n">
-        <v>2.351974062783407</v>
+        <v>2.231426375657815</v>
       </c>
       <c r="C12" t="n">
-        <v>2.342163737197585</v>
+        <v>2.552365252790861</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.627130036024771</v>
+        <v>2.596820816341444</v>
       </c>
       <c r="B13" t="n">
-        <v>2.239906843837608</v>
+        <v>2.307417570590254</v>
       </c>
       <c r="C13" t="n">
-        <v>2.561513070886555</v>
+        <v>2.564682937237432</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -625,13 +625,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.422598921533567</v>
+        <v>2.679746455047037</v>
       </c>
       <c r="B14" t="n">
-        <v>2.364004250513722</v>
+        <v>2.306218347417863</v>
       </c>
       <c r="C14" t="n">
-        <v>2.298634706828376</v>
+        <v>2.590886149863779</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.553058046147541</v>
+        <v>2.624871782772782</v>
       </c>
       <c r="B15" t="n">
-        <v>2.203597409367814</v>
+        <v>2.296569163314278</v>
       </c>
       <c r="C15" t="n">
-        <v>2.532697445210878</v>
+        <v>2.580225699776536</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.32630240886194</v>
+        <v>2.683800420555943</v>
       </c>
       <c r="B16" t="n">
-        <v>2.262939910865308</v>
+        <v>2.302930443977262</v>
       </c>
       <c r="C16" t="n">
-        <v>2.3423009100846</v>
+        <v>2.587784200272445</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.026109339268489</v>
+        <v>2.399757456913796</v>
       </c>
       <c r="B17" t="n">
-        <v>2.263464427235271</v>
+        <v>2.334767079829127</v>
       </c>
       <c r="C17" t="n">
-        <v>2.208388183867255</v>
+        <v>2.478405104544038</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.679746455047037</v>
+        <v>2.651088723627508</v>
       </c>
       <c r="B18" t="n">
-        <v>2.306218347417863</v>
+        <v>2.326789869739933</v>
       </c>
       <c r="C18" t="n">
-        <v>2.590886149863779</v>
+        <v>2.548234216611635</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.606218016523721</v>
+        <v>2.35246703796017</v>
       </c>
       <c r="B19" t="n">
-        <v>2.369443173736068</v>
+        <v>2.332432043584034</v>
       </c>
       <c r="C19" t="n">
-        <v>2.345040070851755</v>
+        <v>2.48045150329213</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.206138930597419</v>
+        <v>2.422598921533567</v>
       </c>
       <c r="B20" t="n">
-        <v>2.173104952793397</v>
+        <v>2.364004250513722</v>
       </c>
       <c r="C20" t="n">
-        <v>2.252082778883347</v>
+        <v>2.298634706828376</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.625073521313385</v>
+        <v>2.463534788978576</v>
       </c>
       <c r="B21" t="n">
-        <v>2.227980290779028</v>
+        <v>2.370512124992456</v>
       </c>
       <c r="C21" t="n">
-        <v>2.57838570787354</v>
+        <v>2.314109626653636</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.629069067846064</v>
+        <v>2.554757283329099</v>
       </c>
       <c r="B22" t="n">
-        <v>2.541283990659188</v>
+        <v>2.27712006490872</v>
       </c>
       <c r="C22" t="n">
-        <v>2.53280419963075</v>
+        <v>2.555652305779812</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.35246703796017</v>
+        <v>2.56500769597073</v>
       </c>
       <c r="B23" t="n">
-        <v>2.332432043584034</v>
+        <v>2.34448177615826</v>
       </c>
       <c r="C23" t="n">
-        <v>2.48045150329213</v>
+        <v>2.569397085635214</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.191273289580191</v>
+        <v>2.550304608162335</v>
       </c>
       <c r="B24" t="n">
-        <v>2.324869524969213</v>
+        <v>2.299696814980033</v>
       </c>
       <c r="C24" t="n">
-        <v>2.285248568002567</v>
+        <v>2.551431452841921</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.237068670325371</v>
+        <v>2.519493246913607</v>
       </c>
       <c r="B25" t="n">
-        <v>2.319450978695094</v>
+        <v>2.355682641881537</v>
       </c>
       <c r="C25" t="n">
-        <v>2.28197392617423</v>
+        <v>2.344296285605302</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.624871782772782</v>
+        <v>2.622132020569288</v>
       </c>
       <c r="B26" t="n">
-        <v>2.296569163314278</v>
+        <v>2.341549074715404</v>
       </c>
       <c r="C26" t="n">
-        <v>2.580225699776536</v>
+        <v>2.271013849860862</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.667124098532421</v>
+        <v>2.593368622729726</v>
       </c>
       <c r="B27" t="n">
-        <v>2.508607807162679</v>
+        <v>2.193373188194348</v>
       </c>
       <c r="C27" t="n">
-        <v>2.202895210497172</v>
+        <v>2.352819673472663</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.170483991589469</v>
+        <v>2.566994919454707</v>
       </c>
       <c r="B28" t="n">
-        <v>2.314006182093166</v>
+        <v>2.367167084324384</v>
       </c>
       <c r="C28" t="n">
-        <v>2.078785515087593</v>
+        <v>2.354083118915874</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.563486626397525</v>
+        <v>2.196705515005723</v>
       </c>
       <c r="B29" t="n">
-        <v>2.36570446141147</v>
+        <v>2.357450766927683</v>
       </c>
       <c r="C29" t="n">
-        <v>2.363827361895726</v>
+        <v>2.346053479425813</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.667025526637913</v>
+        <v>2.606218016523721</v>
       </c>
       <c r="B30" t="n">
-        <v>2.162159679943048</v>
+        <v>2.369443173736068</v>
       </c>
       <c r="C30" t="n">
-        <v>2.481613052336735</v>
+        <v>2.345040070851755</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.56500769597073</v>
+        <v>2.537338527421284</v>
       </c>
       <c r="B31" t="n">
-        <v>2.34448177615826</v>
+        <v>2.317052267712755</v>
       </c>
       <c r="C31" t="n">
-        <v>2.569397085635214</v>
+        <v>2.41059055162073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.349604753496347</v>
+        <v>2.588678122025333</v>
       </c>
       <c r="B32" t="n">
-        <v>2.331471502332587</v>
+        <v>2.269011118919264</v>
       </c>
       <c r="C32" t="n">
-        <v>2.244523954960424</v>
+        <v>2.561906475020284</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.015922314503357</v>
+        <v>2.540778464645661</v>
       </c>
       <c r="B33" t="n">
-        <v>2.26664465692821</v>
+        <v>2.336401482300104</v>
       </c>
       <c r="C33" t="n">
-        <v>2.271622551812442</v>
+        <v>2.400169649091026</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.193675091200168</v>
+        <v>2.583398710356563</v>
       </c>
       <c r="B34" t="n">
-        <v>2.177841350732224</v>
+        <v>2.309306900543944</v>
       </c>
       <c r="C34" t="n">
-        <v>2.250612263896254</v>
+        <v>2.544795011592503</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.668696768080722</v>
+        <v>2.627130036024771</v>
       </c>
       <c r="B35" t="n">
-        <v>2.266755071717981</v>
+        <v>2.239906843837608</v>
       </c>
       <c r="C35" t="n">
-        <v>2.587637637316047</v>
+        <v>2.561513070886555</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.313697319004641</v>
+        <v>2.594073177629089</v>
       </c>
       <c r="B36" t="n">
-        <v>2.312667376305897</v>
+        <v>2.292567242548741</v>
       </c>
       <c r="C36" t="n">
-        <v>2.236965736994207</v>
+        <v>2.567395961526083</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.448029070899834</v>
+        <v>2.530499304720998</v>
       </c>
       <c r="B37" t="n">
-        <v>2.291324986540798</v>
+        <v>2.351679823673256</v>
       </c>
       <c r="C37" t="n">
-        <v>2.037996424881052</v>
+        <v>2.426574382000869</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.977414991491749</v>
+        <v>2.563486626397525</v>
       </c>
       <c r="B38" t="n">
-        <v>2.161025090007678</v>
+        <v>2.36570446141147</v>
       </c>
       <c r="C38" t="n">
-        <v>2.202861678051575</v>
+        <v>2.363827361895726</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2.567417143013624</v>
+        <v>2.500655302576149</v>
       </c>
       <c r="B39" t="n">
-        <v>2.424933758964723</v>
+        <v>2.359727289887416</v>
       </c>
       <c r="C39" t="n">
-        <v>2.337958618858968</v>
+        <v>2.364026448799299</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.241734609494054</v>
+        <v>2.65334952793852</v>
       </c>
       <c r="B40" t="n">
-        <v>2.332217062027059</v>
+        <v>2.353449240269415</v>
       </c>
       <c r="C40" t="n">
-        <v>2.286997137842962</v>
+        <v>2.424087492320128</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.289448134214759</v>
+        <v>2.653567995734028</v>
       </c>
       <c r="B41" t="n">
-        <v>2.353385930408763</v>
+        <v>2.371018999534573</v>
       </c>
       <c r="C41" t="n">
-        <v>2.313161727368327</v>
+        <v>2.361898638581837</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2.571913009297373</v>
+        <v>2.202561546853226</v>
       </c>
       <c r="B42" t="n">
-        <v>2.169454133143928</v>
+        <v>2.259659366807167</v>
       </c>
       <c r="C42" t="n">
-        <v>2.552946684957741</v>
+        <v>2.321545510280821</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.624410163413285</v>
+        <v>2.277364480487816</v>
       </c>
       <c r="B43" t="n">
-        <v>2.150197144590792</v>
+        <v>2.2939657182454</v>
       </c>
       <c r="C43" t="n">
-        <v>2.211940353618906</v>
+        <v>2.31505999383055</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.07454668761523</v>
+        <v>2.294661275696149</v>
       </c>
       <c r="B44" t="n">
-        <v>2.279123973556165</v>
+        <v>2.277921212016668</v>
       </c>
       <c r="C44" t="n">
-        <v>2.27263627748931</v>
+        <v>2.335778352320174</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.656586417709822</v>
+        <v>2.65134801709211</v>
       </c>
       <c r="B45" t="n">
-        <v>2.543324117105223</v>
+        <v>2.531426818990558</v>
       </c>
       <c r="C45" t="n">
-        <v>2.472558621674179</v>
+        <v>2.200379296955872</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.516954528166707</v>
+        <v>2.644913062395452</v>
       </c>
       <c r="B46" t="n">
-        <v>2.325397130620469</v>
+        <v>2.509964111462115</v>
       </c>
       <c r="C46" t="n">
-        <v>2.475414671983885</v>
+        <v>2.193902485992918</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2.653300118918687</v>
+        <v>2.667124098532421</v>
       </c>
       <c r="B47" t="n">
-        <v>2.178753673512799</v>
+        <v>2.508607807162679</v>
       </c>
       <c r="C47" t="n">
-        <v>2.497536483168711</v>
+        <v>2.202895210497172</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.908834498983218</v>
+        <v>2.571913009297373</v>
       </c>
       <c r="B48" t="n">
-        <v>2.229908931380674</v>
+        <v>2.169454133143928</v>
       </c>
       <c r="C48" t="n">
-        <v>2.343307891024871</v>
+        <v>2.552946684957741</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.679755384789443</v>
+        <v>2.574899437264706</v>
       </c>
       <c r="B49" t="n">
-        <v>2.271508305875221</v>
+        <v>2.155926254576242</v>
       </c>
       <c r="C49" t="n">
-        <v>2.591208885551077</v>
+        <v>2.534411147541336</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.634014511638621</v>
+        <v>2.582306854921062</v>
       </c>
       <c r="B50" t="n">
-        <v>2.231426375657815</v>
+        <v>2.192294193925953</v>
       </c>
       <c r="C50" t="n">
-        <v>2.552365252790861</v>
+        <v>2.491011070610031</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.594073177629089</v>
+        <v>2.578729952939772</v>
       </c>
       <c r="B51" t="n">
-        <v>2.292567242548741</v>
+        <v>2.320978789053172</v>
       </c>
       <c r="C51" t="n">
-        <v>2.567395961526083</v>
+        <v>2.475117545049989</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.583398710356563</v>
+        <v>2.595867764491026</v>
       </c>
       <c r="B52" t="n">
-        <v>2.309306900543944</v>
+        <v>2.333097234459558</v>
       </c>
       <c r="C52" t="n">
-        <v>2.544795011592503</v>
+        <v>2.465638850815931</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.65334952793852</v>
+        <v>2.60180353732828</v>
       </c>
       <c r="B53" t="n">
-        <v>2.353449240269415</v>
+        <v>2.344155485899113</v>
       </c>
       <c r="C53" t="n">
-        <v>2.424087492320128</v>
+        <v>2.447847806839985</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.184271507170825</v>
+        <v>2.567417143013624</v>
       </c>
       <c r="B54" t="n">
-        <v>2.252519063308656</v>
+        <v>2.424933758964723</v>
       </c>
       <c r="C54" t="n">
-        <v>2.255262127561852</v>
+        <v>2.337958618858968</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.029857528534087</v>
+        <v>2.549967665493523</v>
       </c>
       <c r="B55" t="n">
-        <v>2.039788895143123</v>
+        <v>2.384387864962223</v>
       </c>
       <c r="C55" t="n">
-        <v>2.262331187808041</v>
+        <v>2.339390365624197</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.196705515005723</v>
+        <v>2.593841705117359</v>
       </c>
       <c r="B56" t="n">
-        <v>2.357450766927683</v>
+        <v>2.430037430274988</v>
       </c>
       <c r="C56" t="n">
-        <v>2.346053479425813</v>
+        <v>2.339243373525104</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.646872901344002</v>
+        <v>2.553058046147541</v>
       </c>
       <c r="B57" t="n">
-        <v>2.26898542436165</v>
+        <v>2.203597409367814</v>
       </c>
       <c r="C57" t="n">
-        <v>2.59906352889791</v>
+        <v>2.532697445210878</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.519493246913607</v>
+        <v>2.551643309632389</v>
       </c>
       <c r="B58" t="n">
-        <v>2.355682641881537</v>
+        <v>2.162285140441991</v>
       </c>
       <c r="C58" t="n">
-        <v>2.344296285605302</v>
+        <v>2.547005635502636</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.678287560910719</v>
+        <v>1.968860188065932</v>
       </c>
       <c r="B59" t="n">
-        <v>2.244305528377277</v>
+        <v>2.188591594174434</v>
       </c>
       <c r="C59" t="n">
-        <v>2.568459287525335</v>
+        <v>2.323080060711215</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.33795911135199</v>
+        <v>1.896348058420027</v>
       </c>
       <c r="B60" t="n">
-        <v>2.252820491250876</v>
+        <v>2.163937029100441</v>
       </c>
       <c r="C60" t="n">
-        <v>2.200650991072225</v>
+        <v>2.324167505269502</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.605345719359669</v>
+        <v>1.624410163413285</v>
       </c>
       <c r="B61" t="n">
-        <v>2.2988503891766</v>
+        <v>2.150197144590792</v>
       </c>
       <c r="C61" t="n">
-        <v>2.57496712066068</v>
+        <v>2.211940353618906</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.680601529736316</v>
+        <v>1.954635888877716</v>
       </c>
       <c r="B62" t="n">
-        <v>2.259203855946821</v>
+        <v>2.183925292160856</v>
       </c>
       <c r="C62" t="n">
-        <v>2.580087903613065</v>
+        <v>2.330437078473641</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.515542208522992</v>
+        <v>1.975901339688871</v>
       </c>
       <c r="B63" t="n">
-        <v>2.275859186484595</v>
+        <v>2.178417047691136</v>
       </c>
       <c r="C63" t="n">
-        <v>2.537856145613168</v>
+        <v>2.335738569350816</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.223267057196304</v>
+        <v>1.977414991491749</v>
       </c>
       <c r="B64" t="n">
-        <v>2.241464325985458</v>
+        <v>2.161025090007678</v>
       </c>
       <c r="C64" t="n">
-        <v>2.253779598138298</v>
+        <v>2.202861678051575</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.158185643890848</v>
+        <v>2.376533503457402</v>
       </c>
       <c r="B65" t="n">
-        <v>1.974220240331553</v>
+        <v>2.3072412834097</v>
       </c>
       <c r="C65" t="n">
-        <v>2.228707591063358</v>
+        <v>2.281021676800193</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.185586327337385</v>
+        <v>2.33795911135199</v>
       </c>
       <c r="B66" t="n">
-        <v>2.305487794902551</v>
+        <v>2.252820491250876</v>
       </c>
       <c r="C66" t="n">
-        <v>2.271772736290946</v>
+        <v>2.200650991072225</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.649118514095572</v>
+        <v>2.591090654908874</v>
       </c>
       <c r="B67" t="n">
-        <v>2.220693003968837</v>
+        <v>2.521594244681742</v>
       </c>
       <c r="C67" t="n">
-        <v>2.573227495221475</v>
+        <v>2.168140528383407</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.975901339688871</v>
+        <v>2.026109339268489</v>
       </c>
       <c r="B68" t="n">
-        <v>2.178417047691136</v>
+        <v>2.263464427235271</v>
       </c>
       <c r="C68" t="n">
-        <v>2.335738569350816</v>
+        <v>2.208388183867255</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.399757456913796</v>
+        <v>2.015922314503357</v>
       </c>
       <c r="B69" t="n">
-        <v>2.334767079829127</v>
+        <v>2.26664465692821</v>
       </c>
       <c r="C69" t="n">
-        <v>2.478405104544038</v>
+        <v>2.271622551812442</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.207106500517098</v>
+        <v>2.136538503923445</v>
       </c>
       <c r="B70" t="n">
-        <v>2.342045694374746</v>
+        <v>2.306355832908186</v>
       </c>
       <c r="C70" t="n">
-        <v>2.293885334010343</v>
+        <v>2.089159220258338</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.277364480487816</v>
+        <v>2.158086312028522</v>
       </c>
       <c r="B71" t="n">
-        <v>2.2939657182454</v>
+        <v>2.307058918301771</v>
       </c>
       <c r="C71" t="n">
-        <v>2.31505999383055</v>
+        <v>2.22687010320386</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.454511357398325</v>
+        <v>2.170483991589469</v>
       </c>
       <c r="B72" t="n">
-        <v>2.321036421986394</v>
+        <v>2.314006182093166</v>
       </c>
       <c r="C72" t="n">
-        <v>2.423366848172871</v>
+        <v>2.078785515087593</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.637937086095405</v>
+        <v>2.07454668761523</v>
       </c>
       <c r="B73" t="n">
-        <v>2.379229585753154</v>
+        <v>2.279123973556165</v>
       </c>
       <c r="C73" t="n">
-        <v>2.524289055226272</v>
+        <v>2.27263627748931</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.17296461808005</v>
+        <v>2.427791014242178</v>
       </c>
       <c r="B74" t="n">
-        <v>2.292260827784319</v>
+        <v>2.351974062783407</v>
       </c>
       <c r="C74" t="n">
-        <v>2.262709190449397</v>
+        <v>2.342163737197585</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.578729952939772</v>
+        <v>2.500644115749872</v>
       </c>
       <c r="B75" t="n">
-        <v>2.320978789053172</v>
+        <v>2.325618373109036</v>
       </c>
       <c r="C75" t="n">
-        <v>2.475117545049989</v>
+        <v>2.341870097623451</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.566994919454707</v>
+        <v>2.448029070899834</v>
       </c>
       <c r="B76" t="n">
-        <v>2.367167084324384</v>
+        <v>2.291324986540798</v>
       </c>
       <c r="C76" t="n">
-        <v>2.354083118915874</v>
+        <v>2.037996424881052</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.500644115749872</v>
+        <v>2.221157721469343</v>
       </c>
       <c r="B77" t="n">
-        <v>2.325618373109036</v>
+        <v>2.214190127350072</v>
       </c>
       <c r="C77" t="n">
-        <v>2.341870097623451</v>
+        <v>2.343020609386757</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.65134801709211</v>
+        <v>2.35650737262077</v>
       </c>
       <c r="B78" t="n">
-        <v>2.531426818990558</v>
+        <v>2.186216552900088</v>
       </c>
       <c r="C78" t="n">
-        <v>2.200379296955872</v>
+        <v>2.335860790138517</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.622132020569288</v>
+        <v>2.17296461808005</v>
       </c>
       <c r="B79" t="n">
-        <v>2.341549074715404</v>
+        <v>2.292260827784319</v>
       </c>
       <c r="C79" t="n">
-        <v>2.271013849860862</v>
+        <v>2.262709190449397</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.354265845763388</v>
+        <v>2.156799279901178</v>
       </c>
       <c r="B80" t="n">
-        <v>2.284682408937367</v>
+        <v>2.262621724639299</v>
       </c>
       <c r="C80" t="n">
-        <v>2.217881440658418</v>
+        <v>2.247403039253084</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.267994881544177</v>
+        <v>2.207106500517098</v>
       </c>
       <c r="B81" t="n">
-        <v>2.071343623244888</v>
+        <v>2.342045694374746</v>
       </c>
       <c r="C81" t="n">
-        <v>2.219467641378478</v>
+        <v>2.293885334010343</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.588678122025333</v>
+        <v>2.184271507170825</v>
       </c>
       <c r="B82" t="n">
-        <v>2.269011118919264</v>
+        <v>2.252519063308656</v>
       </c>
       <c r="C82" t="n">
-        <v>2.561906475020284</v>
+        <v>2.255262127561852</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.040047920513516</v>
+        <v>2.231534220418264</v>
       </c>
       <c r="B83" t="n">
-        <v>2.274217452696757</v>
+        <v>2.259211807444122</v>
       </c>
       <c r="C83" t="n">
-        <v>2.271005892973476</v>
+        <v>2.260876182533185</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.503280001566913</v>
+        <v>2.191273289580191</v>
       </c>
       <c r="B84" t="n">
-        <v>2.279048260419655</v>
+        <v>2.324869524969213</v>
       </c>
       <c r="C84" t="n">
-        <v>2.502647072990981</v>
+        <v>2.285248568002567</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.669849419843462</v>
+        <v>2.147561006359381</v>
       </c>
       <c r="B85" t="n">
-        <v>2.25603562765839</v>
+        <v>1.997970612857675</v>
       </c>
       <c r="C85" t="n">
-        <v>2.580561892625862</v>
+        <v>2.245012160002389</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.968860188065932</v>
+        <v>2.158185643890848</v>
       </c>
       <c r="B86" t="n">
-        <v>2.188591594174434</v>
+        <v>1.974220240331553</v>
       </c>
       <c r="C86" t="n">
-        <v>2.323080060711215</v>
+        <v>2.228707591063358</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.261508337628931</v>
+        <v>2.198771978803265</v>
       </c>
       <c r="B87" t="n">
-        <v>2.171119839145181</v>
+        <v>2.261668810332718</v>
       </c>
       <c r="C87" t="n">
-        <v>2.23751529529252</v>
+        <v>2.237635763631407</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.365710798995343</v>
+        <v>2.199584481336573</v>
       </c>
       <c r="B88" t="n">
-        <v>2.352701586198572</v>
+        <v>2.240282252130742</v>
       </c>
       <c r="C88" t="n">
-        <v>2.274794787336025</v>
+        <v>2.24030603798729</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.593841705117359</v>
+        <v>2.230422968912952</v>
       </c>
       <c r="B89" t="n">
-        <v>2.430037430274988</v>
+        <v>2.286232966440056</v>
       </c>
       <c r="C89" t="n">
-        <v>2.339243373525104</v>
+        <v>2.257889733634266</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.550304608162335</v>
+        <v>2.270215220027881</v>
       </c>
       <c r="B90" t="n">
-        <v>2.299696814980033</v>
+        <v>2.341924048510498</v>
       </c>
       <c r="C90" t="n">
-        <v>2.551431452841921</v>
+        <v>2.301993847276905</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.896348058420027</v>
+        <v>2.185288458898196</v>
       </c>
       <c r="B91" t="n">
-        <v>2.163937029100441</v>
+        <v>2.268434082850229</v>
       </c>
       <c r="C91" t="n">
-        <v>2.324167505269502</v>
+        <v>2.243013587396571</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.954635888877716</v>
+        <v>2.183725977685496</v>
       </c>
       <c r="B92" t="n">
-        <v>2.183925292160856</v>
+        <v>2.234416349998132</v>
       </c>
       <c r="C92" t="n">
-        <v>2.330437078473641</v>
+        <v>2.224754613011311</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.680791344062093</v>
+        <v>2.241734609494054</v>
       </c>
       <c r="B93" t="n">
-        <v>2.279357079090075</v>
+        <v>2.332217062027059</v>
       </c>
       <c r="C93" t="n">
-        <v>2.599422891957974</v>
+        <v>2.286997137842962</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.147561006359381</v>
+        <v>2.237068670325371</v>
       </c>
       <c r="B94" t="n">
-        <v>1.997970612857675</v>
+        <v>2.319450978695094</v>
       </c>
       <c r="C94" t="n">
-        <v>2.245012160002389</v>
+        <v>2.28197392617423</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.591090654908874</v>
+        <v>2.289448134214759</v>
       </c>
       <c r="B96" t="n">
-        <v>2.521594244681742</v>
+        <v>2.353385930408763</v>
       </c>
       <c r="C96" t="n">
-        <v>2.168140528383407</v>
+        <v>2.313161727368327</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.455014094226736</v>
+        <v>2.185586327337385</v>
       </c>
       <c r="B97" t="n">
-        <v>2.339845674976631</v>
+        <v>2.305487794902551</v>
       </c>
       <c r="C97" t="n">
-        <v>2.357076316110589</v>
+        <v>2.271772736290946</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.648930772838632</v>
+        <v>2.187904425926656</v>
       </c>
       <c r="B98" t="n">
-        <v>2.251676055083721</v>
+        <v>2.291940246816882</v>
       </c>
       <c r="C98" t="n">
-        <v>2.591368724716004</v>
+        <v>2.269528335377554</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.554757283329099</v>
+        <v>2.646872901344002</v>
       </c>
       <c r="B99" t="n">
-        <v>2.27712006490872</v>
+        <v>2.26898542436165</v>
       </c>
       <c r="C99" t="n">
-        <v>2.555652305779812</v>
+        <v>2.59906352889791</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.593368622729726</v>
+        <v>2.648930772838632</v>
       </c>
       <c r="B100" t="n">
-        <v>2.193373188194348</v>
+        <v>2.251676055083721</v>
       </c>
       <c r="C100" t="n">
-        <v>2.352819673472663</v>
+        <v>2.591368724716004</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.404905676922154</v>
+        <v>2.652827337134626</v>
       </c>
       <c r="B101" t="n">
-        <v>2.434754268270566</v>
+        <v>2.246782201250509</v>
       </c>
       <c r="C101" t="n">
-        <v>2.24703063137714</v>
+        <v>2.605075292718862</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.136538503923445</v>
+        <v>2.678287560910719</v>
       </c>
       <c r="B102" t="n">
-        <v>2.306355832908186</v>
+        <v>2.244305528377277</v>
       </c>
       <c r="C102" t="n">
-        <v>2.089159220258338</v>
+        <v>2.568459287525335</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.198942403024616</v>
+        <v>2.680601529736316</v>
       </c>
       <c r="B103" t="n">
-        <v>2.234657947484328</v>
+        <v>2.259203855946821</v>
       </c>
       <c r="C103" t="n">
-        <v>2.262036712553357</v>
+        <v>2.580087903613065</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -1885,13 +1885,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.35650737262077</v>
+        <v>2.679755384789443</v>
       </c>
       <c r="B104" t="n">
-        <v>2.186216552900088</v>
+        <v>2.271508305875221</v>
       </c>
       <c r="C104" t="n">
-        <v>2.335860790138517</v>
+        <v>2.591208885551077</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.592759777091638</v>
+        <v>2.649663217553844</v>
       </c>
       <c r="B105" t="n">
-        <v>2.489881760982162</v>
+        <v>2.25069508054984</v>
       </c>
       <c r="C105" t="n">
-        <v>2.538253543211535</v>
+        <v>2.512915249224281</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2.158086312028522</v>
+        <v>2.629069067846064</v>
       </c>
       <c r="B106" t="n">
-        <v>2.307058918301771</v>
+        <v>2.541283990659188</v>
       </c>
       <c r="C106" t="n">
-        <v>2.22687010320386</v>
+        <v>2.53280419963075</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.500655302576149</v>
+        <v>2.648803868322345</v>
       </c>
       <c r="B107" t="n">
-        <v>2.359727289887416</v>
+        <v>2.261719998481714</v>
       </c>
       <c r="C107" t="n">
-        <v>2.364026448799299</v>
+        <v>2.585469555685621</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -1941,419 +1941,419 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.490514490206708</v>
+        <v>2.637937086095405</v>
       </c>
       <c r="B108" t="n">
-        <v>2.630834759998321</v>
+        <v>2.379229585753154</v>
       </c>
       <c r="C108" t="n">
-        <v>2.336371116311676</v>
+        <v>2.524289055226272</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.438414969364946</v>
+        <v>2.625073521313385</v>
       </c>
       <c r="B109" t="n">
-        <v>2.616257328740044</v>
+        <v>2.227980290779028</v>
       </c>
       <c r="C109" t="n">
-        <v>2.335345041383737</v>
+        <v>2.57838570787354</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.317053655168948</v>
+        <v>2.649118514095572</v>
       </c>
       <c r="B110" t="n">
-        <v>2.611579271322391</v>
+        <v>2.220693003968837</v>
       </c>
       <c r="C110" t="n">
-        <v>2.317586493374226</v>
+        <v>2.573227495221475</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.124007324379497</v>
+        <v>2.652722121409795</v>
       </c>
       <c r="B111" t="n">
-        <v>2.578248065220517</v>
+        <v>2.362473441458004</v>
       </c>
       <c r="C111" t="n">
-        <v>2.331553179012034</v>
+        <v>2.49239632320325</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.370375973095053</v>
+        <v>2.667025526637913</v>
       </c>
       <c r="B112" t="n">
-        <v>2.609109344148263</v>
+        <v>2.162159679943048</v>
       </c>
       <c r="C112" t="n">
-        <v>2.322397770198566</v>
+        <v>2.481613052336735</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.341758011670661</v>
+        <v>2.653300118918687</v>
       </c>
       <c r="B113" t="n">
-        <v>2.597123578081301</v>
+        <v>2.178753673512799</v>
       </c>
       <c r="C113" t="n">
-        <v>2.312071963329119</v>
+        <v>2.497536483168711</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.365832839777053</v>
+        <v>2.503280001566913</v>
       </c>
       <c r="B114" t="n">
-        <v>2.583168975839518</v>
+        <v>2.279048260419655</v>
       </c>
       <c r="C114" t="n">
-        <v>2.345278311026949</v>
+        <v>2.502647072990981</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.385747994679604</v>
+        <v>2.516954528166707</v>
       </c>
       <c r="B115" t="n">
-        <v>2.608996558117396</v>
+        <v>2.325397130620469</v>
       </c>
       <c r="C115" t="n">
-        <v>2.303979487218431</v>
+        <v>2.475414671983885</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.145858979411239</v>
+        <v>2.515542208522992</v>
       </c>
       <c r="B116" t="n">
-        <v>2.597601756290806</v>
+        <v>2.275859186484595</v>
       </c>
       <c r="C116" t="n">
-        <v>2.327857259673778</v>
+        <v>2.537856145613168</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.345049260225855</v>
+        <v>2.588273506032273</v>
       </c>
       <c r="B117" t="n">
-        <v>2.59742869631995</v>
+        <v>2.34333396866609</v>
       </c>
       <c r="C117" t="n">
-        <v>2.317778939758983</v>
+        <v>2.573044950777868</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.482120996167738</v>
+        <v>2.566796748703987</v>
       </c>
       <c r="B118" t="n">
-        <v>2.627838712079954</v>
+        <v>2.286930242951263</v>
       </c>
       <c r="C118" t="n">
-        <v>2.310303781713208</v>
+        <v>2.566226640819462</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.303967173734024</v>
+        <v>1.908834498983218</v>
       </c>
       <c r="B119" t="n">
-        <v>2.605938815934301</v>
+        <v>2.229908931380674</v>
       </c>
       <c r="C119" t="n">
-        <v>2.328833657553834</v>
+        <v>2.343307891024871</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.324210091260519</v>
+        <v>2.040047920513516</v>
       </c>
       <c r="B120" t="n">
-        <v>2.594563477501987</v>
+        <v>2.274217452696757</v>
       </c>
       <c r="C120" t="n">
-        <v>2.333089357650795</v>
+        <v>2.271005892973476</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.494445154906053</v>
+        <v>2.32630240886194</v>
       </c>
       <c r="B121" t="n">
-        <v>2.581287902846079</v>
+        <v>2.262939910865308</v>
       </c>
       <c r="C121" t="n">
-        <v>2.287495782367059</v>
+        <v>2.3423009100846</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.172463975767465</v>
+        <v>2.293128871245283</v>
       </c>
       <c r="B122" t="n">
-        <v>2.606532910109468</v>
+        <v>2.204872457912797</v>
       </c>
       <c r="C122" t="n">
-        <v>2.330577015941904</v>
+        <v>2.262332504240732</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.247484553067085</v>
+        <v>2.266260650399048</v>
       </c>
       <c r="B123" t="n">
-        <v>2.616995896647171</v>
+        <v>1.814185975788112</v>
       </c>
       <c r="C123" t="n">
-        <v>2.316166978336977</v>
+        <v>2.20974604115071</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.257746229274</v>
+        <v>2.33480877305489</v>
       </c>
       <c r="B124" t="n">
-        <v>2.606794464944777</v>
+        <v>2.330540308537136</v>
       </c>
       <c r="C124" t="n">
-        <v>2.329291644508884</v>
+        <v>2.313683382938709</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.40770600671109</v>
+        <v>2.193675091200168</v>
       </c>
       <c r="B125" t="n">
-        <v>2.569969717830078</v>
+        <v>2.177841350732224</v>
       </c>
       <c r="C125" t="n">
-        <v>2.34860442314489</v>
+        <v>2.250612263896254</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.309517838574174</v>
+        <v>2.223267057196304</v>
       </c>
       <c r="B126" t="n">
-        <v>2.612988967436912</v>
+        <v>2.241464325985458</v>
       </c>
       <c r="C126" t="n">
-        <v>2.299959282573797</v>
+        <v>2.253779598138298</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.271962730765464</v>
+        <v>2.261508337628931</v>
       </c>
       <c r="B127" t="n">
-        <v>2.598065128517983</v>
+        <v>2.171119839145181</v>
       </c>
       <c r="C127" t="n">
-        <v>2.316562473918176</v>
+        <v>2.23751529529252</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.318505305384798</v>
+        <v>2.198942403024616</v>
       </c>
       <c r="B128" t="n">
-        <v>2.604114019804972</v>
+        <v>2.234657947484328</v>
       </c>
       <c r="C128" t="n">
-        <v>2.313467830978935</v>
+        <v>2.262036712553357</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2.347927697676195</v>
+        <v>2.206138930597419</v>
       </c>
       <c r="B129" t="n">
-        <v>2.601761160992227</v>
+        <v>2.173104952793397</v>
       </c>
       <c r="C129" t="n">
-        <v>2.319341187386327</v>
+        <v>2.252082778883347</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.537312834747845</v>
+        <v>2.267994881544177</v>
       </c>
       <c r="B130" t="n">
-        <v>2.632642646453792</v>
+        <v>2.071343623244888</v>
       </c>
       <c r="C130" t="n">
-        <v>2.333044854169795</v>
+        <v>2.219467641378478</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.387330804453853</v>
+        <v>2.029857528534087</v>
       </c>
       <c r="B131" t="n">
-        <v>2.57505185731086</v>
+        <v>2.039788895143123</v>
       </c>
       <c r="C131" t="n">
-        <v>2.309694969395105</v>
+        <v>2.262331187808041</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.153675273061646</v>
+        <v>2.404905676922154</v>
       </c>
       <c r="B132" t="n">
-        <v>2.604589117442845</v>
+        <v>2.434754268270566</v>
       </c>
       <c r="C132" t="n">
-        <v>2.332580264766536</v>
+        <v>2.24703063137714</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.158540183550641</v>
+        <v>2.656586417709822</v>
       </c>
       <c r="B133" t="n">
-        <v>2.605092418680847</v>
+        <v>2.543324117105223</v>
       </c>
       <c r="C133" t="n">
-        <v>2.332061568698393</v>
+        <v>2.472558621674179</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.525328852080551</v>
+        <v>2.592759777091638</v>
       </c>
       <c r="B134" t="n">
-        <v>2.631599552624125</v>
+        <v>2.489881760982162</v>
       </c>
       <c r="C134" t="n">
-        <v>2.328107011453071</v>
+        <v>2.538253543211535</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.34679687857122</v>
+        <v>2.454511357398325</v>
       </c>
       <c r="B135" t="n">
-        <v>2.600059114688438</v>
+        <v>2.321036421986394</v>
       </c>
       <c r="C135" t="n">
-        <v>2.318727444863107</v>
+        <v>2.423366848172871</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.146580693966631</v>
+        <v>2.455014094226736</v>
       </c>
       <c r="B136" t="n">
-        <v>2.597739487699161</v>
+        <v>2.339845674976631</v>
       </c>
       <c r="C136" t="n">
-        <v>2.327774238777621</v>
+        <v>2.357076316110589</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.323642607072594</v>
+        <v>2.153675273061646</v>
       </c>
       <c r="B137" t="n">
-        <v>2.607723762376315</v>
+        <v>2.604589117442845</v>
       </c>
       <c r="C137" t="n">
-        <v>2.31611570123941</v>
+        <v>2.332580264766536</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2361,13 +2361,13 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.348647981927343</v>
+        <v>2.318505305384798</v>
       </c>
       <c r="B138" t="n">
-        <v>2.595524129738406</v>
+        <v>2.604114019804972</v>
       </c>
       <c r="C138" t="n">
-        <v>2.317090886375081</v>
+        <v>2.313467830978935</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
@@ -2375,13 +2375,13 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.328690614144593</v>
+        <v>2.347927697676195</v>
       </c>
       <c r="B139" t="n">
-        <v>2.604769933495704</v>
+        <v>2.601761160992227</v>
       </c>
       <c r="C139" t="n">
-        <v>2.31498888028115</v>
+        <v>2.319341187386327</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2389,13 +2389,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.264234207629126</v>
+        <v>2.40770600671109</v>
       </c>
       <c r="B140" t="n">
-        <v>2.602810661628212</v>
+        <v>2.569969717830078</v>
       </c>
       <c r="C140" t="n">
-        <v>2.323482438684174</v>
+        <v>2.34860442314489</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2403,13 +2403,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.273892697784157</v>
+        <v>2.387330804453853</v>
       </c>
       <c r="B141" t="n">
-        <v>2.598832068585164</v>
+        <v>2.57505185731086</v>
       </c>
       <c r="C141" t="n">
-        <v>2.31570923148141</v>
+        <v>2.309694969395105</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.512672274358001</v>
+        <v>2.191341284383765</v>
       </c>
       <c r="B142" t="n">
-        <v>2.603123678647721</v>
+        <v>2.608074415605269</v>
       </c>
       <c r="C142" t="n">
-        <v>2.306863016043756</v>
+        <v>2.333560651574775</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.353710000290302</v>
+        <v>2.537312834747845</v>
       </c>
       <c r="B143" t="n">
-        <v>2.590195792493452</v>
+        <v>2.632642646453792</v>
       </c>
       <c r="C143" t="n">
-        <v>2.328557310100044</v>
+        <v>2.333044854169795</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -2445,13 +2445,13 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.267152561381038</v>
+        <v>2.172463975767465</v>
       </c>
       <c r="B144" t="n">
-        <v>2.601018709386787</v>
+        <v>2.606532910109468</v>
       </c>
       <c r="C144" t="n">
-        <v>2.320869403207448</v>
+        <v>2.330577015941904</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2459,13 +2459,13 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.147045151818409</v>
+        <v>2.124007324379497</v>
       </c>
       <c r="B145" t="n">
-        <v>2.598662132905118</v>
+        <v>2.578248065220517</v>
       </c>
       <c r="C145" t="n">
-        <v>2.328574005815943</v>
+        <v>2.331553179012034</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2473,13 +2473,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.369604543348085</v>
+        <v>2.317053655168948</v>
       </c>
       <c r="B146" t="n">
-        <v>2.604704637008944</v>
+        <v>2.611579271322391</v>
       </c>
       <c r="C146" t="n">
-        <v>2.326282914786289</v>
+        <v>2.317586493374226</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.347242048634266</v>
+        <v>2.490514490206708</v>
       </c>
       <c r="B147" t="n">
-        <v>2.598603730082561</v>
+        <v>2.630834759998321</v>
       </c>
       <c r="C147" t="n">
-        <v>2.311063110061113</v>
+        <v>2.336371116311676</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2501,13 +2501,13 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.128586978681187</v>
+        <v>2.257746229274</v>
       </c>
       <c r="B148" t="n">
-        <v>2.582304198013886</v>
+        <v>2.606794464944777</v>
       </c>
       <c r="C148" t="n">
-        <v>2.330778590868868</v>
+        <v>2.329291644508884</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2515,13 +2515,13 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.492065999957419</v>
+        <v>2.450028342839671</v>
       </c>
       <c r="B149" t="n">
-        <v>2.590274446309476</v>
+        <v>2.601954573963933</v>
       </c>
       <c r="C149" t="n">
-        <v>2.291898822417503</v>
+        <v>2.341541978063518</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.158331304436258</v>
+        <v>2.438414969364946</v>
       </c>
       <c r="B150" t="n">
-        <v>2.604687782503056</v>
+        <v>2.616257328740044</v>
       </c>
       <c r="C150" t="n">
-        <v>2.332433135157507</v>
+        <v>2.335345041383737</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2.317646987168366</v>
+        <v>2.303967173734024</v>
       </c>
       <c r="B151" t="n">
-        <v>2.604961592250343</v>
+        <v>2.605938815934301</v>
       </c>
       <c r="C151" t="n">
-        <v>2.31217774185616</v>
+        <v>2.328833657553834</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.398188364171111</v>
+        <v>2.370375973095053</v>
       </c>
       <c r="B152" t="n">
-        <v>2.572343681352291</v>
+        <v>2.609109344148263</v>
       </c>
       <c r="C152" t="n">
-        <v>2.330429081003943</v>
+        <v>2.322397770198566</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2571,13 +2571,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.126085978196267</v>
+        <v>2.365832839777053</v>
       </c>
       <c r="B153" t="n">
-        <v>2.580093623513957</v>
+        <v>2.583168975839518</v>
       </c>
       <c r="C153" t="n">
-        <v>2.331625140701958</v>
+        <v>2.345278311026949</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -2585,13 +2585,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2.2544290850593</v>
+        <v>2.385747994679604</v>
       </c>
       <c r="B154" t="n">
-        <v>2.610092134786518</v>
+        <v>2.608996558117396</v>
       </c>
       <c r="C154" t="n">
-        <v>2.325049022778852</v>
+        <v>2.303979487218431</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -2599,13 +2599,13 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.271936428274145</v>
+        <v>2.247484553067085</v>
       </c>
       <c r="B155" t="n">
-        <v>2.598081278996054</v>
+        <v>2.616995896647171</v>
       </c>
       <c r="C155" t="n">
-        <v>2.316586024641901</v>
+        <v>2.316166978336977</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.309515828471627</v>
+        <v>2.482120996167738</v>
       </c>
       <c r="B156" t="n">
-        <v>2.612986414314376</v>
+        <v>2.627838712079954</v>
       </c>
       <c r="C156" t="n">
-        <v>2.299969739060788</v>
+        <v>2.310303781713208</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2627,13 +2627,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.386356635954439</v>
+        <v>2.309517838574174</v>
       </c>
       <c r="B157" t="n">
-        <v>2.576699465627758</v>
+        <v>2.612988967436912</v>
       </c>
       <c r="C157" t="n">
-        <v>2.346908578144774</v>
+        <v>2.299959282573797</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.317647616299926</v>
+        <v>2.145858979411239</v>
       </c>
       <c r="B158" t="n">
-        <v>2.608524768808008</v>
+        <v>2.597601756290806</v>
       </c>
       <c r="C158" t="n">
-        <v>2.315901290322063</v>
+        <v>2.327857259673778</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2655,13 +2655,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2.350809071464532</v>
+        <v>2.494445154906053</v>
       </c>
       <c r="B159" t="n">
-        <v>2.594380407257573</v>
+        <v>2.581287902846079</v>
       </c>
       <c r="C159" t="n">
-        <v>2.31667769939028</v>
+        <v>2.287495782367059</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.288487421755658</v>
+        <v>2.551622455442707</v>
       </c>
       <c r="B160" t="n">
-        <v>2.610472666105856</v>
+        <v>2.612536872182085</v>
       </c>
       <c r="C160" t="n">
-        <v>2.311874535085841</v>
+        <v>2.31115544094127</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -2683,13 +2683,13 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.327319124529768</v>
+        <v>2.019266690661422</v>
       </c>
       <c r="B161" t="n">
-        <v>2.595017060472942</v>
+        <v>2.585893719861568</v>
       </c>
       <c r="C161" t="n">
-        <v>2.329365624202515</v>
+        <v>2.332973776254577</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -2697,13 +2697,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.323050829640813</v>
+        <v>2.271962730765464</v>
       </c>
       <c r="B162" t="n">
-        <v>2.596504229947465</v>
+        <v>2.598065128517983</v>
       </c>
       <c r="C162" t="n">
-        <v>2.329102094449991</v>
+        <v>2.316562473918176</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -2711,13 +2711,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2.45793264412413</v>
+        <v>2.345049260225855</v>
       </c>
       <c r="B163" t="n">
-        <v>2.576523556400116</v>
+        <v>2.59742869631995</v>
       </c>
       <c r="C163" t="n">
-        <v>2.313219229642032</v>
+        <v>2.317778939758983</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.308060743476502</v>
+        <v>2.341758011670661</v>
       </c>
       <c r="B164" t="n">
-        <v>2.611138244777891</v>
+        <v>2.597123578081301</v>
       </c>
       <c r="C164" t="n">
-        <v>2.307539043096793</v>
+        <v>2.312071963329119</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -2739,13 +2739,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.409656958263217</v>
+        <v>2.324210091260519</v>
       </c>
       <c r="B165" t="n">
-        <v>2.572910386564706</v>
+        <v>2.594563477501987</v>
       </c>
       <c r="C165" t="n">
-        <v>2.347762049805265</v>
+        <v>2.333089357650795</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.386693794942907</v>
+        <v>2.317744264304711</v>
       </c>
       <c r="B166" t="n">
-        <v>2.575292376903387</v>
+        <v>2.611175163090898</v>
       </c>
       <c r="C166" t="n">
-        <v>2.310749344885599</v>
+        <v>2.317432334943573</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -2767,13 +2767,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.15274596008607</v>
+        <v>2.252574286154704</v>
       </c>
       <c r="B167" t="n">
-        <v>2.603764015516089</v>
+        <v>2.613059633167576</v>
       </c>
       <c r="C167" t="n">
-        <v>2.332548092534849</v>
+        <v>2.316249213500495</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -2781,13 +2781,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.295753573900986</v>
+        <v>2.33771699673626</v>
       </c>
       <c r="B168" t="n">
-        <v>2.603918117817118</v>
+        <v>2.596420568819108</v>
       </c>
       <c r="C168" t="n">
-        <v>2.325684388811365</v>
+        <v>2.323165911682159</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.303192705061837</v>
+        <v>2.514883587647917</v>
       </c>
       <c r="B169" t="n">
-        <v>2.61046099715231</v>
+        <v>2.630690389854</v>
       </c>
       <c r="C169" t="n">
-        <v>2.320322146008368</v>
+        <v>2.32380317738264</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.309669364467343</v>
+        <v>2.177306862330706</v>
       </c>
       <c r="B170" t="n">
-        <v>2.61296062207312</v>
+        <v>2.604842879276452</v>
       </c>
       <c r="C170" t="n">
-        <v>2.300313720454153</v>
+        <v>2.331800762555937</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.491996446995369</v>
+        <v>2.308004926842205</v>
       </c>
       <c r="B171" t="n">
-        <v>2.612154382268354</v>
+        <v>2.605432005539404</v>
       </c>
       <c r="C171" t="n">
-        <v>2.317943919265488</v>
+        <v>2.324566024304739</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -2837,13 +2837,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.216648135656808</v>
+        <v>2.163595446471847</v>
       </c>
       <c r="B172" t="n">
-        <v>2.612695196334693</v>
+        <v>2.605615412904979</v>
       </c>
       <c r="C172" t="n">
-        <v>2.322090072379678</v>
+        <v>2.331522577280855</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.311239450498553</v>
+        <v>2.167793084156603</v>
       </c>
       <c r="B173" t="n">
-        <v>2.605026014839216</v>
+        <v>2.605895461792553</v>
       </c>
       <c r="C173" t="n">
-        <v>2.321147350519845</v>
+        <v>2.332947729100371</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.474385824033201</v>
+        <v>2.131553578157276</v>
       </c>
       <c r="B174" t="n">
-        <v>2.626321963745432</v>
+        <v>2.584931671754712</v>
       </c>
       <c r="C174" t="n">
-        <v>2.336053470012548</v>
+        <v>2.330276829681598</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.535984403723061</v>
+        <v>2.305697463858101</v>
       </c>
       <c r="B175" t="n">
-        <v>2.632527018932995</v>
+        <v>2.604966493850703</v>
       </c>
       <c r="C175" t="n">
-        <v>2.332497491607405</v>
+        <v>2.329197419143</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.226407114270986</v>
+        <v>2.245596798433972</v>
       </c>
       <c r="B176" t="n">
-        <v>2.61405626373163</v>
+        <v>2.61674623099657</v>
       </c>
       <c r="C176" t="n">
-        <v>2.320215556695076</v>
+        <v>2.316497268234738</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -2907,13 +2907,13 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.142351013529572</v>
+        <v>2.346013602867593</v>
       </c>
       <c r="B177" t="n">
-        <v>2.59453473468422</v>
+        <v>2.59465689037768</v>
       </c>
       <c r="C177" t="n">
-        <v>2.332188226012179</v>
+        <v>2.317941689182224</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -2921,13 +2921,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.458869393265734</v>
+        <v>2.344788444499498</v>
       </c>
       <c r="B178" t="n">
-        <v>2.621980470786724</v>
+        <v>2.599401470908767</v>
       </c>
       <c r="C178" t="n">
-        <v>2.335747881394373</v>
+        <v>2.315642468408855</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.233553191791366</v>
+        <v>2.175985997317488</v>
       </c>
       <c r="B179" t="n">
-        <v>2.606281794967309</v>
+        <v>2.604538739693109</v>
       </c>
       <c r="C179" t="n">
-        <v>2.330056139388677</v>
+        <v>2.331635128672095</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -2949,13 +2949,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.532291605223292</v>
+        <v>2.359279881681692</v>
       </c>
       <c r="B180" t="n">
-        <v>2.632448669232242</v>
+        <v>2.603991840872586</v>
       </c>
       <c r="C180" t="n">
-        <v>2.333401745547834</v>
+        <v>2.320374176965401</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.386011244494879</v>
+        <v>2.189494190962542</v>
       </c>
       <c r="B181" t="n">
-        <v>2.603350942098171</v>
+        <v>2.607903501003992</v>
       </c>
       <c r="C181" t="n">
-        <v>2.30493007499701</v>
+        <v>2.333512574649181</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.277351339665403</v>
+        <v>2.357252567487572</v>
       </c>
       <c r="B182" t="n">
-        <v>2.615066704945344</v>
+        <v>2.592078484078442</v>
       </c>
       <c r="C182" t="n">
-        <v>2.308363558178713</v>
+        <v>2.332849055677347</v>
       </c>
       <c r="D182" t="n">
         <v>1</v>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.308279239955455</v>
+        <v>2.337803247287036</v>
       </c>
       <c r="B183" t="n">
-        <v>2.611415767079051</v>
+        <v>2.596432427579002</v>
       </c>
       <c r="C183" t="n">
-        <v>2.306402431637303</v>
+        <v>2.323102543897293</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.162575634508842</v>
+        <v>2.33475868401506</v>
       </c>
       <c r="B184" t="n">
-        <v>2.60076094298632</v>
+        <v>2.599227780124703</v>
       </c>
       <c r="C184" t="n">
-        <v>2.330776217357706</v>
+        <v>2.312492135283506</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.282452649765782</v>
+        <v>2.372694311008412</v>
       </c>
       <c r="B185" t="n">
-        <v>2.600645843430351</v>
+        <v>2.609092334275487</v>
       </c>
       <c r="C185" t="n">
-        <v>2.32058453180878</v>
+        <v>2.319620009089075</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -3033,13 +3033,13 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.497751913037581</v>
+        <v>2.367501493253318</v>
       </c>
       <c r="B186" t="n">
-        <v>2.585249342248539</v>
+        <v>2.592696648202218</v>
       </c>
       <c r="C186" t="n">
-        <v>2.291009379653479</v>
+        <v>2.336874486767417</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -3047,13 +3047,13 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.273098508667333</v>
+        <v>2.344213032234953</v>
       </c>
       <c r="B187" t="n">
-        <v>2.598212739541025</v>
+        <v>2.597351173031321</v>
       </c>
       <c r="C187" t="n">
-        <v>2.316486955382871</v>
+        <v>2.316328932761931</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -3061,13 +3061,13 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.257324614475968</v>
+        <v>2.47889597397897</v>
       </c>
       <c r="B188" t="n">
-        <v>2.60721360451614</v>
+        <v>2.627583902430025</v>
       </c>
       <c r="C188" t="n">
-        <v>2.328752399909296</v>
+        <v>2.33614229523984</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -3075,13 +3075,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.343142738673773</v>
+        <v>2.34731724265252</v>
       </c>
       <c r="B189" t="n">
-        <v>2.598164439201327</v>
+        <v>2.593901255712925</v>
       </c>
       <c r="C189" t="n">
-        <v>2.313703471129461</v>
+        <v>2.319739796141896</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.313290524744594</v>
+        <v>2.488769356488906</v>
       </c>
       <c r="B190" t="n">
-        <v>2.604768568254259</v>
+        <v>2.628417389788437</v>
       </c>
       <c r="C190" t="n">
-        <v>2.318979503102172</v>
+        <v>2.313043151295211</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.314538826602785</v>
+        <v>2.322775145315818</v>
       </c>
       <c r="B191" t="n">
-        <v>2.606692168276186</v>
+        <v>2.596363036945028</v>
       </c>
       <c r="C191" t="n">
-        <v>2.311281284304899</v>
+        <v>2.329853647791028</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.137513620060921</v>
+        <v>2.535071318370874</v>
       </c>
       <c r="B192" t="n">
-        <v>2.590239795544922</v>
+        <v>2.603491219974315</v>
       </c>
       <c r="C192" t="n">
-        <v>2.332020758487754</v>
+        <v>2.304306669690107</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -3131,13 +3131,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.306935122900968</v>
+        <v>2.171781796395185</v>
       </c>
       <c r="B193" t="n">
-        <v>2.609708542963692</v>
+        <v>2.606462334972806</v>
       </c>
       <c r="C193" t="n">
-        <v>2.313394484114979</v>
+        <v>2.330649749810075</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.484161379805556</v>
+        <v>2.280005533787695</v>
       </c>
       <c r="B194" t="n">
-        <v>2.620131775525112</v>
+        <v>2.601261218311463</v>
       </c>
       <c r="C194" t="n">
-        <v>2.306527696897571</v>
+        <v>2.313006733958556</v>
       </c>
       <c r="D194" t="n">
         <v>1</v>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.16085532733386</v>
+        <v>2.146456564026469</v>
       </c>
       <c r="B195" t="n">
-        <v>2.602635949425877</v>
+        <v>2.598179898062343</v>
       </c>
       <c r="C195" t="n">
-        <v>2.329390295450797</v>
+        <v>2.332330357592455</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
@@ -3173,13 +3173,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.226804909891686</v>
+        <v>2.321902538669784</v>
       </c>
       <c r="B196" t="n">
-        <v>2.610506511225741</v>
+        <v>2.598426616121784</v>
       </c>
       <c r="C196" t="n">
-        <v>2.318743818967166</v>
+        <v>2.325152564633109</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.312260245987273</v>
+        <v>2.281792814737793</v>
       </c>
       <c r="B197" t="n">
-        <v>2.610280893772827</v>
+        <v>2.600483511757782</v>
       </c>
       <c r="C197" t="n">
-        <v>2.304081238634058</v>
+        <v>2.320331537035346</v>
       </c>
       <c r="D197" t="n">
         <v>1</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.277205661743291</v>
+        <v>2.330531295570658</v>
       </c>
       <c r="B198" t="n">
-        <v>2.615076114750364</v>
+        <v>2.602648245134992</v>
       </c>
       <c r="C198" t="n">
-        <v>2.308401620058262</v>
+        <v>2.307854069472191</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
@@ -3215,13 +3215,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.48129157422798</v>
+        <v>2.281288734472638</v>
       </c>
       <c r="B199" t="n">
-        <v>2.623361089680158</v>
+        <v>2.599277179699683</v>
       </c>
       <c r="C199" t="n">
-        <v>2.334347808350432</v>
+        <v>2.315942382490923</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -3229,13 +3229,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.300869062149894</v>
+        <v>2.306532612303205</v>
       </c>
       <c r="B200" t="n">
-        <v>2.605176622940713</v>
+        <v>2.607044555614773</v>
       </c>
       <c r="C200" t="n">
-        <v>2.32764577572724</v>
+        <v>2.326628793784779</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
@@ -3243,13 +3243,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.262677463736302</v>
+        <v>2.475169696980543</v>
       </c>
       <c r="B201" t="n">
-        <v>2.603766546673416</v>
+        <v>2.619888781883553</v>
       </c>
       <c r="C201" t="n">
-        <v>2.324876315974567</v>
+        <v>2.33833094231497</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.370507388268147</v>
+        <v>2.306539494535823</v>
       </c>
       <c r="B202" t="n">
-        <v>2.581403977862239</v>
+        <v>2.607047521952687</v>
       </c>
       <c r="C202" t="n">
-        <v>2.33754101782576</v>
+        <v>2.326622878856418</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -3271,13 +3271,13 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.387302417093474</v>
+        <v>2.125501524571523</v>
       </c>
       <c r="B203" t="n">
-        <v>2.575660648380029</v>
+        <v>2.600205990124758</v>
       </c>
       <c r="C203" t="n">
-        <v>2.309592463424439</v>
+        <v>2.33131174005359</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -3285,13 +3285,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.202784191476304</v>
+        <v>2.354819383988783</v>
       </c>
       <c r="B204" t="n">
-        <v>2.611084034658909</v>
+        <v>2.589552755368642</v>
       </c>
       <c r="C204" t="n">
-        <v>2.323987951254068</v>
+        <v>2.330087480145675</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -3299,13 +3299,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.284616892598742</v>
+        <v>2.467582664429287</v>
       </c>
       <c r="B205" t="n">
-        <v>2.610009555091296</v>
+        <v>2.614476685999428</v>
       </c>
       <c r="C205" t="n">
-        <v>2.314067469855411</v>
+        <v>2.339299952679764</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.31830466784715</v>
+        <v>2.308770502150469</v>
       </c>
       <c r="B206" t="n">
-        <v>2.605145817731239</v>
+        <v>2.612039741504113</v>
       </c>
       <c r="C206" t="n">
-        <v>2.314037085384971</v>
+        <v>2.303846901941161</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -3327,13 +3327,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.534112198012249</v>
+        <v>2.343128658273214</v>
       </c>
       <c r="B207" t="n">
-        <v>2.570110751136535</v>
+        <v>2.597250645141162</v>
       </c>
       <c r="C207" t="n">
-        <v>2.320009035838221</v>
+        <v>2.314448644313027</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -3341,13 +3341,13 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.322835602454558</v>
+        <v>2.261971041267274</v>
       </c>
       <c r="B208" t="n">
-        <v>2.603023397217986</v>
+        <v>2.604200310169681</v>
       </c>
       <c r="C208" t="n">
-        <v>2.314171131667527</v>
+        <v>2.325508832499309</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -3355,13 +3355,13 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.503114612875521</v>
+        <v>2.307614287137395</v>
       </c>
       <c r="B209" t="n">
-        <v>2.564240261906765</v>
+        <v>2.612232524527439</v>
       </c>
       <c r="C209" t="n">
-        <v>2.320060394951814</v>
+        <v>2.300800846626807</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
@@ -3369,13 +3369,13 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.250262413673866</v>
+        <v>2.496450307071875</v>
       </c>
       <c r="B210" t="n">
-        <v>2.614234344373699</v>
+        <v>2.624683888805893</v>
       </c>
       <c r="C210" t="n">
-        <v>2.3197198572625</v>
+        <v>2.310479370686311</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -3383,13 +3383,13 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.348726131843701</v>
+        <v>2.266432074748076</v>
       </c>
       <c r="B211" t="n">
-        <v>2.60093208989126</v>
+        <v>2.601461108679884</v>
       </c>
       <c r="C211" t="n">
-        <v>2.320497787295161</v>
+        <v>2.321514512502783</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.158805549099115</v>
+        <v>2.293221915431779</v>
       </c>
       <c r="B212" t="n">
-        <v>2.598665452497076</v>
+        <v>2.606137733756968</v>
       </c>
       <c r="C212" t="n">
-        <v>2.32802323357384</v>
+        <v>2.328940128509557</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.312019214816138</v>
+        <v>2.149038572511398</v>
       </c>
       <c r="B213" t="n">
-        <v>2.609852002415027</v>
+        <v>2.600444147621151</v>
       </c>
       <c r="C213" t="n">
-        <v>2.305599723455208</v>
+        <v>2.329778532731907</v>
       </c>
       <c r="D213" t="n">
         <v>1</v>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.387941210437834</v>
+        <v>2.205813908248833</v>
       </c>
       <c r="B214" t="n">
-        <v>2.574899605160852</v>
+        <v>2.610374196905269</v>
       </c>
       <c r="C214" t="n">
-        <v>2.310860629647331</v>
+        <v>2.32907690675004</v>
       </c>
       <c r="D214" t="n">
         <v>1</v>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.153036829496056</v>
+        <v>2.430422142570693</v>
       </c>
       <c r="B215" t="n">
-        <v>2.600011321860237</v>
+        <v>2.604209743124947</v>
       </c>
       <c r="C215" t="n">
-        <v>2.328591031725405</v>
+        <v>2.33879614922513</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -3453,15 +3453,827 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.384620006253455</v>
+        <v>2.341763342921204</v>
       </c>
       <c r="B216" t="n">
-        <v>2.580497088352982</v>
+        <v>2.597124072319809</v>
       </c>
       <c r="C216" t="n">
-        <v>2.311725937962666</v>
+        <v>2.312081207638894</v>
       </c>
       <c r="D216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2.453641494853736</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.620292109330288</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.32662104136504</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2.515156915949092</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2.62345594546878</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.32620263163935</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2.173692303751693</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2.606441326313186</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.333101276472841</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2.513491772373395</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2.591697403812464</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.295377169946419</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2.325882951475005</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2.601896084205673</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.313024948443779</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>2.31673061047573</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2.611639702045873</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.316830851721631</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>2.386988336360944</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2.582396376619951</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.308458326614054</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>2.480603172664997</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2.627436513639293</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.311173414925069</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2.398929214355333</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2.61081374646292</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.311829496871994</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>2.158299101026493</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2.601777838038049</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2.329128979402145</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2.393094344446798</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2.573614270887059</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2.320701299048145</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>2.287442862627687</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2.609190330867471</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.323430597998264</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2.347068765329075</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2.601115525222259</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.31832917937237</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>2.342605037272481</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2.597760263879021</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.313069942622765</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2.30919153832601</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2.605283064527266</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2.323311855838672</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>2.429546177686149</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2.615034660028494</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.330063276721079</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2.170629705339589</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2.606343144937165</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.330772585595447</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>2.212649132104332</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2.612137462419015</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2.322858205519246</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2.47219759895244</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2.617768680329164</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2.338710536546965</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>2.316084316818357</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2.606504698646678</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2.309828981242167</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2.304776267667357</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2.606966482884858</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.324624777663241</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>2.400601696294998</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2.571741729513374</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2.335037694625134</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>2.517318253518601</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2.622808764496101</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2.325310774312598</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2.172127254711494</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2.606498074499498</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.330612917093259</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2.316805062263601</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2.598724671698959</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.331532586865213</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>2.131954121641519</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2.582886725166715</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.331393090153419</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2.342228429497426</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2.59747717819522</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2.312626217237696</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2.255460756953157</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2.609066519657737</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.326368529351929</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>2.317447984132578</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2.610641678887178</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2.318440721418081</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2.246117755408962</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2.616778704814899</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2.316590424146335</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>2.468794863689645</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2.608552634394099</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2.339715061858471</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>2.312988079371175</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2.609562172546588</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2.305175203452454</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2.343217780935908</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2.597258907339963</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2.314603181695067</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2.475048273226574</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2.590313065970857</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2.311097828853048</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2.31432081355386</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2.608246123616688</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2.307178360136906</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>2.338627593445251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2.596666875217084</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2.315821309844115</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2.551017156521538</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2.612670138264247</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2.311148023709785</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>2.479995219455367</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2.627891471004731</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.336163944349175</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2.342986144036</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2.598046731328442</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2.313518968788967</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>2.317601464044968</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2.610276751077946</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2.31877320230948</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>2.247647022582755</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2.616870247067896</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.316169603367987</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>2.443255614432811</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2.617611739866719</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2.335440375553014</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>2.148354282602178</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2.598176319524151</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2.328170165803279</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>2.555013304048849</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2.583834849119656</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2.321268570383195</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2.322847120045222</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2.595329387792696</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2.332802818088229</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>2.27156099325447</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2.598311806780623</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2.316922181636225</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2.548865614269036</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2.6164103799097</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2.315372578274447</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>2.163252863301885</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2.60344078932247</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2.329635389018553</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>2.515694440815383</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2.63076096705352</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2.324137278784358</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>2.355560436641325</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2.604259649755906</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2.320380469838801</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2.337324425895572</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2.596366593472874</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.32345433122677</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>2.375782263431157</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2.609069677665532</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2.315920119569764</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>2.270330029794056</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2.599067653370693</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2.318024361654842</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>2.135393706938346</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2.588332817617165</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2.329627322529726</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>2.335600350891784</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2.598974750512574</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2.312441609742492</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>2.386191436791883</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2.599486565147162</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2.305580744381705</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2.148592916014892</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2.600076684385361</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.332404316756853</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>2.340946153106814</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2.597367646445158</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2.312120699467251</v>
+      </c>
+      <c r="D274" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据预处理/样本均衡后svm数据.xlsx
+++ b/数据预处理/样本均衡后svm数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.317744264304711</v>
+        <v>2.335361973005095</v>
       </c>
       <c r="B166" t="n">
-        <v>2.611175163090898</v>
+        <v>2.596190447436169</v>
       </c>
       <c r="C166" t="n">
-        <v>2.317432334943573</v>
+        <v>2.319732589978257</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -2767,13 +2767,13 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.252574286154704</v>
+        <v>2.345647103995946</v>
       </c>
       <c r="B167" t="n">
-        <v>2.613059633167576</v>
+        <v>2.600046901584406</v>
       </c>
       <c r="C167" t="n">
-        <v>2.316249213500495</v>
+        <v>2.316654154945728</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -2781,13 +2781,13 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.33771699673626</v>
+        <v>2.313662721933749</v>
       </c>
       <c r="B168" t="n">
-        <v>2.596420568819108</v>
+        <v>2.6047218508351</v>
       </c>
       <c r="C168" t="n">
-        <v>2.323165911682159</v>
+        <v>2.318586115726297</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.514883587647917</v>
+        <v>2.18030321198155</v>
       </c>
       <c r="B169" t="n">
-        <v>2.630690389854</v>
+        <v>2.607173055691262</v>
       </c>
       <c r="C169" t="n">
-        <v>2.32380317738264</v>
+        <v>2.331816039204078</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.177306862330706</v>
+        <v>2.392289455477842</v>
       </c>
       <c r="B170" t="n">
-        <v>2.604842879276452</v>
+        <v>2.586133594364206</v>
       </c>
       <c r="C170" t="n">
-        <v>2.331800762555937</v>
+        <v>2.337781603858025</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.308004926842205</v>
+        <v>2.521682208641586</v>
       </c>
       <c r="B171" t="n">
-        <v>2.605432005539404</v>
+        <v>2.631282146351454</v>
       </c>
       <c r="C171" t="n">
-        <v>2.324566024304739</v>
+        <v>2.32660445990193</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -2837,13 +2837,13 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.163595446471847</v>
+        <v>2.276982653722773</v>
       </c>
       <c r="B172" t="n">
-        <v>2.605615412904979</v>
+        <v>2.606438357389274</v>
       </c>
       <c r="C172" t="n">
-        <v>2.331522577280855</v>
+        <v>2.329101037597618</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2.167793084156603</v>
+        <v>2.344347681381844</v>
       </c>
       <c r="B173" t="n">
-        <v>2.605895461792553</v>
+        <v>2.599070161422293</v>
       </c>
       <c r="C173" t="n">
-        <v>2.332947729100371</v>
+        <v>2.315123154159231</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.131553578157276</v>
+        <v>2.278378360181973</v>
       </c>
       <c r="B174" t="n">
-        <v>2.584931671754712</v>
+        <v>2.60641251986335</v>
       </c>
       <c r="C174" t="n">
-        <v>2.330276829681598</v>
+        <v>2.32908720803704</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
@@ -2879,13 +2879,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.305697463858101</v>
+        <v>2.352766861741097</v>
       </c>
       <c r="B175" t="n">
-        <v>2.604966493850703</v>
+        <v>2.59213361035482</v>
       </c>
       <c r="C175" t="n">
-        <v>2.329197419143</v>
+        <v>2.327990327496261</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -2893,13 +2893,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2.245596798433972</v>
+        <v>2.327604570945354</v>
       </c>
       <c r="B176" t="n">
-        <v>2.61674623099657</v>
+        <v>2.601378515178229</v>
       </c>
       <c r="C176" t="n">
-        <v>2.316497268234738</v>
+        <v>2.312921599057501</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -2907,13 +2907,13 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.346013602867593</v>
+        <v>2.51733946529219</v>
       </c>
       <c r="B177" t="n">
-        <v>2.59465689037768</v>
+        <v>2.630904151079152</v>
       </c>
       <c r="C177" t="n">
-        <v>2.317941689182224</v>
+        <v>2.324815089522003</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -2921,13 +2921,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2.344788444499498</v>
+        <v>2.32098706555246</v>
       </c>
       <c r="B178" t="n">
-        <v>2.599401470908767</v>
+        <v>2.609277645943425</v>
       </c>
       <c r="C178" t="n">
-        <v>2.315642468408855</v>
+        <v>2.316708473752945</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.175985997317488</v>
+        <v>2.314781856469644</v>
       </c>
       <c r="B179" t="n">
-        <v>2.604538739693109</v>
+        <v>2.599861595296774</v>
       </c>
       <c r="C179" t="n">
-        <v>2.331635128672095</v>
+        <v>2.331107245158305</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -2949,13 +2949,13 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.359279881681692</v>
+        <v>2.269690238129952</v>
       </c>
       <c r="B180" t="n">
-        <v>2.603991840872586</v>
+        <v>2.599460503656846</v>
       </c>
       <c r="C180" t="n">
-        <v>2.320374176965401</v>
+        <v>2.318597218291883</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -2963,13 +2963,13 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.189494190962542</v>
+        <v>2.321890113009986</v>
       </c>
       <c r="B181" t="n">
-        <v>2.607903501003992</v>
+        <v>2.603096447907799</v>
       </c>
       <c r="C181" t="n">
-        <v>2.333512574649181</v>
+        <v>2.313264639857576</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.357252567487572</v>
+        <v>2.541904194275241</v>
       </c>
       <c r="B182" t="n">
-        <v>2.592078484078442</v>
+        <v>2.626191543365418</v>
       </c>
       <c r="C182" t="n">
-        <v>2.332849055677347</v>
+        <v>2.326021455847854</v>
       </c>
       <c r="D182" t="n">
         <v>1</v>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.337803247287036</v>
+        <v>2.34436066999424</v>
       </c>
       <c r="B183" t="n">
-        <v>2.596432427579002</v>
+        <v>2.599079924604217</v>
       </c>
       <c r="C183" t="n">
-        <v>2.323102543897293</v>
+        <v>2.31513845755289</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.33475868401506</v>
+        <v>2.14955487762819</v>
       </c>
       <c r="B184" t="n">
-        <v>2.599227780124703</v>
+        <v>2.600905697618761</v>
       </c>
       <c r="C184" t="n">
-        <v>2.312492135283506</v>
+        <v>2.330090510736456</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.372694311008412</v>
+        <v>2.333809175107699</v>
       </c>
       <c r="B185" t="n">
-        <v>2.609092334275487</v>
+        <v>2.595963906700643</v>
       </c>
       <c r="C185" t="n">
-        <v>2.319620009089075</v>
+        <v>2.321592398146327</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -3033,13 +3033,13 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2.367501493253318</v>
+        <v>2.172281125415956</v>
       </c>
       <c r="B186" t="n">
-        <v>2.592696648202218</v>
+        <v>2.606471528232423</v>
       </c>
       <c r="C186" t="n">
-        <v>2.336874486767417</v>
+        <v>2.33055832364881</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -3047,13 +3047,13 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.344213032234953</v>
+        <v>2.340968088785612</v>
       </c>
       <c r="B187" t="n">
-        <v>2.597351173031321</v>
+        <v>2.596867567935734</v>
       </c>
       <c r="C187" t="n">
-        <v>2.316328932761931</v>
+        <v>2.320777353003877</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -3061,13 +3061,13 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.47889597397897</v>
+        <v>2.310845169134494</v>
       </c>
       <c r="B188" t="n">
-        <v>2.627583902430025</v>
+        <v>2.611678254478374</v>
       </c>
       <c r="C188" t="n">
-        <v>2.33614229523984</v>
+        <v>2.301954317381882</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -3075,13 +3075,13 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.34731724265252</v>
+        <v>2.534209121114273</v>
       </c>
       <c r="B189" t="n">
-        <v>2.593901255712925</v>
+        <v>2.617751040855805</v>
       </c>
       <c r="C189" t="n">
-        <v>2.319739796141896</v>
+        <v>2.318340903324879</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.488769356488906</v>
+        <v>2.158099449303781</v>
       </c>
       <c r="B190" t="n">
-        <v>2.628417389788437</v>
+        <v>2.601710816031286</v>
       </c>
       <c r="C190" t="n">
-        <v>2.313043151295211</v>
+        <v>2.329108569550664</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.322775145315818</v>
+        <v>2.33929690403895</v>
       </c>
       <c r="B191" t="n">
-        <v>2.596363036945028</v>
+        <v>2.59786345881878</v>
       </c>
       <c r="C191" t="n">
-        <v>2.329853647791028</v>
+        <v>2.31221970443433</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -3117,13 +3117,13 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2.535071318370874</v>
+        <v>2.484976528853861</v>
       </c>
       <c r="B192" t="n">
-        <v>2.603491219974315</v>
+        <v>2.585693554027576</v>
       </c>
       <c r="C192" t="n">
-        <v>2.304306669690107</v>
+        <v>2.299017167914237</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
@@ -3131,13 +3131,13 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.171781796395185</v>
+        <v>2.525635846519398</v>
       </c>
       <c r="B193" t="n">
-        <v>2.606462334972806</v>
+        <v>2.618653815269195</v>
       </c>
       <c r="C193" t="n">
-        <v>2.330649749810075</v>
+        <v>2.320637465264676</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.280005533787695</v>
+        <v>2.33554437497911</v>
       </c>
       <c r="B194" t="n">
-        <v>2.601261218311463</v>
+        <v>2.598991578504579</v>
       </c>
       <c r="C194" t="n">
-        <v>2.313006733958556</v>
+        <v>2.312444969995045</v>
       </c>
       <c r="D194" t="n">
         <v>1</v>
@@ -3159,13 +3159,13 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.146456564026469</v>
+        <v>2.140657484678863</v>
       </c>
       <c r="B195" t="n">
-        <v>2.598179898062343</v>
+        <v>2.592994868528396</v>
       </c>
       <c r="C195" t="n">
-        <v>2.332330357592455</v>
+        <v>2.328737023926934</v>
       </c>
       <c r="D195" t="n">
         <v>1</v>
@@ -3173,13 +3173,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2.321902538669784</v>
+        <v>2.375244087463085</v>
       </c>
       <c r="B196" t="n">
-        <v>2.598426616121784</v>
+        <v>2.609073626315423</v>
       </c>
       <c r="C196" t="n">
-        <v>2.325152564633109</v>
+        <v>2.316564945445042</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.281792814737793</v>
+        <v>2.337266845737206</v>
       </c>
       <c r="B197" t="n">
-        <v>2.600483511757782</v>
+        <v>2.596358676662297</v>
       </c>
       <c r="C197" t="n">
-        <v>2.320331537035346</v>
+        <v>2.323496635038805</v>
       </c>
       <c r="D197" t="n">
         <v>1</v>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2.330531295570658</v>
+        <v>2.061849621719762</v>
       </c>
       <c r="B198" t="n">
-        <v>2.602648245134992</v>
+        <v>2.582785333241032</v>
       </c>
       <c r="C198" t="n">
-        <v>2.307854069472191</v>
+        <v>2.332396223949483</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
@@ -3215,13 +3215,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.281288734472638</v>
+        <v>2.363178243227599</v>
       </c>
       <c r="B199" t="n">
-        <v>2.599277179699683</v>
+        <v>2.585925432631381</v>
       </c>
       <c r="C199" t="n">
-        <v>2.315942382490923</v>
+        <v>2.34143290178466</v>
       </c>
       <c r="D199" t="n">
         <v>1</v>
@@ -3229,13 +3229,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2.306532612303205</v>
+        <v>2.328733320450567</v>
       </c>
       <c r="B200" t="n">
-        <v>2.607044555614773</v>
+        <v>2.595185385286066</v>
       </c>
       <c r="C200" t="n">
-        <v>2.326628793784779</v>
+        <v>2.32976616711305</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
@@ -3243,13 +3243,13 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.475169696980543</v>
+        <v>2.377596011270453</v>
       </c>
       <c r="B201" t="n">
-        <v>2.619888781883553</v>
+        <v>2.579460989390935</v>
       </c>
       <c r="C201" t="n">
-        <v>2.33833094231497</v>
+        <v>2.346212695266652</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.306539494535823</v>
+        <v>2.347676521230274</v>
       </c>
       <c r="B202" t="n">
-        <v>2.607047521952687</v>
+        <v>2.60138310411337</v>
       </c>
       <c r="C202" t="n">
-        <v>2.326622878856418</v>
+        <v>2.319204863490653</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -3271,13 +3271,13 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.125501524571523</v>
+        <v>2.47000280916594</v>
       </c>
       <c r="B203" t="n">
-        <v>2.600205990124758</v>
+        <v>2.592660666834742</v>
       </c>
       <c r="C203" t="n">
-        <v>2.33131174005359</v>
+        <v>2.317237128935929</v>
       </c>
       <c r="D203" t="n">
         <v>1</v>
@@ -3285,13 +3285,13 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2.354819383988783</v>
+        <v>2.401670954720574</v>
       </c>
       <c r="B204" t="n">
-        <v>2.589552755368642</v>
+        <v>2.571475026862222</v>
       </c>
       <c r="C204" t="n">
-        <v>2.330087480145675</v>
+        <v>2.337079601288502</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -3299,13 +3299,13 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.467582664429287</v>
+        <v>2.492942027922885</v>
       </c>
       <c r="B205" t="n">
-        <v>2.614476685999428</v>
+        <v>2.600235135340655</v>
       </c>
       <c r="C205" t="n">
-        <v>2.339299952679764</v>
+        <v>2.306186217416315</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2.308770502150469</v>
+        <v>2.315324462731885</v>
       </c>
       <c r="B206" t="n">
-        <v>2.612039741504113</v>
+        <v>2.604513272576956</v>
       </c>
       <c r="C206" t="n">
-        <v>2.303846901941161</v>
+        <v>2.316829767556535</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -3327,13 +3327,13 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.343128658273214</v>
+        <v>2.383777258030891</v>
       </c>
       <c r="B207" t="n">
-        <v>2.597250645141162</v>
+        <v>2.576393591653897</v>
       </c>
       <c r="C207" t="n">
-        <v>2.314448644313027</v>
+        <v>2.315576784640123</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -3341,13 +3341,13 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.261971041267274</v>
+        <v>2.31763565288053</v>
       </c>
       <c r="B208" t="n">
-        <v>2.604200310169681</v>
+        <v>2.610195460590694</v>
       </c>
       <c r="C208" t="n">
-        <v>2.325508832499309</v>
+        <v>2.31884726499525</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -3355,13 +3355,13 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2.307614287137395</v>
+        <v>2.15197092591521</v>
       </c>
       <c r="B209" t="n">
-        <v>2.612232524527439</v>
+        <v>2.603065519485394</v>
       </c>
       <c r="C209" t="n">
-        <v>2.300800846626807</v>
+        <v>2.331550410898133</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
@@ -3369,13 +3369,13 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.496450307071875</v>
+        <v>2.540587877922651</v>
       </c>
       <c r="B210" t="n">
-        <v>2.624683888805893</v>
+        <v>2.628041037493858</v>
       </c>
       <c r="C210" t="n">
-        <v>2.310479370686311</v>
+        <v>2.328035023726119</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -3383,13 +3383,13 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.266432074748076</v>
+        <v>2.12466738302664</v>
       </c>
       <c r="B211" t="n">
-        <v>2.601461108679884</v>
+        <v>2.578832669504564</v>
       </c>
       <c r="C211" t="n">
-        <v>2.321514512502783</v>
+        <v>2.331441538794631</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -3397,13 +3397,13 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.293221915431779</v>
+        <v>2.145992763792633</v>
       </c>
       <c r="B212" t="n">
-        <v>2.606137733756968</v>
+        <v>2.597646666986255</v>
       </c>
       <c r="C212" t="n">
-        <v>2.328940128509557</v>
+        <v>2.327870936086471</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.149038572511398</v>
+        <v>2.349734234481812</v>
       </c>
       <c r="B213" t="n">
-        <v>2.600444147621151</v>
+        <v>2.598760313517509</v>
       </c>
       <c r="C213" t="n">
-        <v>2.329778532731907</v>
+        <v>2.316190436313692</v>
       </c>
       <c r="D213" t="n">
         <v>1</v>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.205813908248833</v>
+        <v>2.306809152707396</v>
       </c>
       <c r="B214" t="n">
-        <v>2.610374196905269</v>
+        <v>2.609548542499771</v>
       </c>
       <c r="C214" t="n">
-        <v>2.32907690675004</v>
+        <v>2.314049776897059</v>
       </c>
       <c r="D214" t="n">
         <v>1</v>
@@ -3439,13 +3439,13 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.430422142570693</v>
+        <v>2.270541382316776</v>
       </c>
       <c r="B215" t="n">
-        <v>2.604209743124947</v>
+        <v>2.59916436140388</v>
       </c>
       <c r="C215" t="n">
-        <v>2.33879614922513</v>
+        <v>2.316539509094662</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.341763342921204</v>
+        <v>2.298441580011431</v>
       </c>
       <c r="B216" t="n">
-        <v>2.597124072319809</v>
+        <v>2.613704418563072</v>
       </c>
       <c r="C216" t="n">
-        <v>2.312081207638894</v>
+        <v>2.302853222940034</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -3467,13 +3467,13 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.453641494853736</v>
+        <v>2.273671605440943</v>
       </c>
       <c r="B217" t="n">
-        <v>2.620292109330288</v>
+        <v>2.59848554342855</v>
       </c>
       <c r="C217" t="n">
-        <v>2.32662104136504</v>
+        <v>2.31721769278806</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -3481,13 +3481,13 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>2.515156915949092</v>
+        <v>2.365915885932122</v>
       </c>
       <c r="B218" t="n">
-        <v>2.62345594546878</v>
+        <v>2.607649386233742</v>
       </c>
       <c r="C218" t="n">
-        <v>2.32620263163935</v>
+        <v>2.32179047963798</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
@@ -3495,13 +3495,13 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.173692303751693</v>
+        <v>2.320888663161545</v>
       </c>
       <c r="B219" t="n">
-        <v>2.606441326313186</v>
+        <v>2.602460807261978</v>
       </c>
       <c r="C219" t="n">
-        <v>2.333101276472841</v>
+        <v>2.325894205152553</v>
       </c>
       <c r="D219" t="n">
         <v>1</v>
@@ -3509,13 +3509,13 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.513491772373395</v>
+        <v>2.236771247241147</v>
       </c>
       <c r="B220" t="n">
-        <v>2.591697403812464</v>
+        <v>2.615293492119189</v>
       </c>
       <c r="C220" t="n">
-        <v>2.295377169946419</v>
+        <v>2.31948605371686</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
@@ -3523,13 +3523,13 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.325882951475005</v>
+        <v>2.145335126620877</v>
       </c>
       <c r="B221" t="n">
-        <v>2.601896084205673</v>
+        <v>2.587695460005374</v>
       </c>
       <c r="C221" t="n">
-        <v>2.313024948443779</v>
+        <v>2.332189039101362</v>
       </c>
       <c r="D221" t="n">
         <v>1</v>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.31673061047573</v>
+        <v>2.458647191857982</v>
       </c>
       <c r="B222" t="n">
-        <v>2.611639702045873</v>
+        <v>2.608906055230082</v>
       </c>
       <c r="C222" t="n">
-        <v>2.316830851721631</v>
+        <v>2.333152603236968</v>
       </c>
       <c r="D222" t="n">
         <v>1</v>
@@ -3551,13 +3551,13 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2.386988336360944</v>
+        <v>2.483809281339538</v>
       </c>
       <c r="B223" t="n">
-        <v>2.582396376619951</v>
+        <v>2.62844134350509</v>
       </c>
       <c r="C223" t="n">
-        <v>2.308458326614054</v>
+        <v>2.315547020615458</v>
       </c>
       <c r="D223" t="n">
         <v>1</v>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.480603172664997</v>
+        <v>2.271198222306684</v>
       </c>
       <c r="B224" t="n">
-        <v>2.627436513639293</v>
+        <v>2.598534558464713</v>
       </c>
       <c r="C224" t="n">
-        <v>2.311173414925069</v>
+        <v>2.317246999474318</v>
       </c>
       <c r="D224" t="n">
         <v>1</v>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2.398929214355333</v>
+        <v>2.374918946213996</v>
       </c>
       <c r="B225" t="n">
-        <v>2.61081374646292</v>
+        <v>2.579738278839989</v>
       </c>
       <c r="C225" t="n">
-        <v>2.311829496871994</v>
+        <v>2.330239025480166</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -3593,13 +3593,13 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.158299101026493</v>
+        <v>2.429805529306619</v>
       </c>
       <c r="B226" t="n">
-        <v>2.601777838038049</v>
+        <v>2.603280322122646</v>
       </c>
       <c r="C226" t="n">
-        <v>2.329128979402145</v>
+        <v>2.33906238780699</v>
       </c>
       <c r="D226" t="n">
         <v>1</v>
@@ -3607,13 +3607,13 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.393094344446798</v>
+        <v>2.308618956968602</v>
       </c>
       <c r="B227" t="n">
-        <v>2.573614270887059</v>
+        <v>2.60535493375158</v>
       </c>
       <c r="C227" t="n">
-        <v>2.320701299048145</v>
+        <v>2.32391703579228</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -3621,13 +3621,13 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>2.287442862627687</v>
+        <v>2.308622903477754</v>
       </c>
       <c r="B228" t="n">
-        <v>2.609190330867471</v>
+        <v>2.611852269726553</v>
       </c>
       <c r="C228" t="n">
-        <v>2.323430597998264</v>
+        <v>2.304614705356655</v>
       </c>
       <c r="D228" t="n">
         <v>1</v>
@@ -3635,13 +3635,13 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.347068765329075</v>
+        <v>2.367873511478519</v>
       </c>
       <c r="B229" t="n">
-        <v>2.601115525222259</v>
+        <v>2.607955212027069</v>
       </c>
       <c r="C229" t="n">
-        <v>2.31832917937237</v>
+        <v>2.321941396489588</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.342605037272481</v>
+        <v>2.304966408659613</v>
       </c>
       <c r="B230" t="n">
-        <v>2.597760263879021</v>
+        <v>2.613282958917841</v>
       </c>
       <c r="C230" t="n">
-        <v>2.313069942622765</v>
+        <v>2.301148453689588</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -3663,13 +3663,13 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.30919153832601</v>
+        <v>2.170843412159427</v>
       </c>
       <c r="B231" t="n">
-        <v>2.605283064527266</v>
+        <v>2.603354618914961</v>
       </c>
       <c r="C231" t="n">
-        <v>2.323311855838672</v>
+        <v>2.330990258572429</v>
       </c>
       <c r="D231" t="n">
         <v>1</v>
@@ -3677,13 +3677,13 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.429546177686149</v>
+        <v>2.505692087144177</v>
       </c>
       <c r="B232" t="n">
-        <v>2.615034660028494</v>
+        <v>2.607752649532257</v>
       </c>
       <c r="C232" t="n">
-        <v>2.330063276721079</v>
+        <v>2.324893095669307</v>
       </c>
       <c r="D232" t="n">
         <v>1</v>
@@ -3691,13 +3691,13 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2.170629705339589</v>
+        <v>2.483513013172506</v>
       </c>
       <c r="B233" t="n">
-        <v>2.606343144937165</v>
+        <v>2.625840361360433</v>
       </c>
       <c r="C233" t="n">
-        <v>2.330772585595447</v>
+        <v>2.337265339945116</v>
       </c>
       <c r="D233" t="n">
         <v>1</v>
@@ -3705,13 +3705,13 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2.212649132104332</v>
+        <v>2.368090721722238</v>
       </c>
       <c r="B234" t="n">
-        <v>2.612137462419015</v>
+        <v>2.608152235849996</v>
       </c>
       <c r="C234" t="n">
-        <v>2.322858205519246</v>
+        <v>2.321573215857539</v>
       </c>
       <c r="D234" t="n">
         <v>1</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.47219759895244</v>
+        <v>2.220567542633517</v>
       </c>
       <c r="B235" t="n">
-        <v>2.617768680329164</v>
+        <v>2.613241829057463</v>
       </c>
       <c r="C235" t="n">
-        <v>2.338710536546965</v>
+        <v>2.321337228240691</v>
       </c>
       <c r="D235" t="n">
         <v>1</v>
@@ -3733,13 +3733,13 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.316084316818357</v>
+        <v>2.322555759559527</v>
       </c>
       <c r="B236" t="n">
-        <v>2.606504698646678</v>
+        <v>2.597333040678886</v>
       </c>
       <c r="C236" t="n">
-        <v>2.309828981242167</v>
+        <v>2.32739930822523</v>
       </c>
       <c r="D236" t="n">
         <v>1</v>
@@ -3747,13 +3747,13 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2.304776267667357</v>
+        <v>2.455260019355939</v>
       </c>
       <c r="B237" t="n">
-        <v>2.606966482884858</v>
+        <v>2.603793962206504</v>
       </c>
       <c r="C237" t="n">
-        <v>2.324624777663241</v>
+        <v>2.34103267563695</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.400601696294998</v>
+        <v>2.373181346531941</v>
       </c>
       <c r="B238" t="n">
-        <v>2.571741729513374</v>
+        <v>2.580394355021463</v>
       </c>
       <c r="C238" t="n">
-        <v>2.335037694625134</v>
+        <v>2.333115093239858</v>
       </c>
       <c r="D238" t="n">
         <v>1</v>
@@ -3775,13 +3775,13 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2.517318253518601</v>
+        <v>2.240778594334536</v>
       </c>
       <c r="B239" t="n">
-        <v>2.622808764496101</v>
+        <v>2.607121514919499</v>
       </c>
       <c r="C239" t="n">
-        <v>2.325310774312598</v>
+        <v>2.330382451128297</v>
       </c>
       <c r="D239" t="n">
         <v>1</v>
@@ -3789,13 +3789,13 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.172127254711494</v>
+        <v>2.314223168053884</v>
       </c>
       <c r="B240" t="n">
-        <v>2.606498074499498</v>
+        <v>2.610359292034721</v>
       </c>
       <c r="C240" t="n">
-        <v>2.330612917093259</v>
+        <v>2.320019152867131</v>
       </c>
       <c r="D240" t="n">
         <v>1</v>
@@ -3803,13 +3803,13 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.316805062263601</v>
+        <v>2.250548994254101</v>
       </c>
       <c r="B241" t="n">
-        <v>2.598724671698959</v>
+        <v>2.613949446257879</v>
       </c>
       <c r="C241" t="n">
-        <v>2.331532586865213</v>
+        <v>2.320086393330399</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -3817,13 +3817,13 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.131954121641519</v>
+        <v>2.324541215751797</v>
       </c>
       <c r="B242" t="n">
-        <v>2.582886725166715</v>
+        <v>2.602299449098616</v>
       </c>
       <c r="C242" t="n">
-        <v>2.331393090153419</v>
+        <v>2.31310549328306</v>
       </c>
       <c r="D242" t="n">
         <v>1</v>
@@ -3831,13 +3831,13 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2.342228429497426</v>
+        <v>2.142158807552636</v>
       </c>
       <c r="B243" t="n">
-        <v>2.59747717819522</v>
+        <v>2.588843347216914</v>
       </c>
       <c r="C243" t="n">
-        <v>2.312626217237696</v>
+        <v>2.331187515949602</v>
       </c>
       <c r="D243" t="n">
         <v>1</v>
@@ -3845,13 +3845,13 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2.255460756953157</v>
+        <v>2.404283998114403</v>
       </c>
       <c r="B244" t="n">
-        <v>2.609066519657737</v>
+        <v>2.571048403243325</v>
       </c>
       <c r="C244" t="n">
-        <v>2.326368529351929</v>
+        <v>2.348332602666657</v>
       </c>
       <c r="D244" t="n">
         <v>1</v>
@@ -3859,13 +3859,13 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2.317447984132578</v>
+        <v>2.322492127049481</v>
       </c>
       <c r="B245" t="n">
-        <v>2.610641678887178</v>
+        <v>2.597439569651625</v>
       </c>
       <c r="C245" t="n">
-        <v>2.318440721418081</v>
+        <v>2.327180445147762</v>
       </c>
       <c r="D245" t="n">
         <v>1</v>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.246117755408962</v>
+        <v>2.304747786392456</v>
       </c>
       <c r="B246" t="n">
-        <v>2.616778704814899</v>
+        <v>2.605840835052587</v>
       </c>
       <c r="C246" t="n">
-        <v>2.316590424146335</v>
+        <v>2.328008602517893</v>
       </c>
       <c r="D246" t="n">
         <v>1</v>
@@ -3887,13 +3887,13 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.468794863689645</v>
+        <v>2.195276727632924</v>
       </c>
       <c r="B247" t="n">
-        <v>2.608552634394099</v>
+        <v>2.607032598456111</v>
       </c>
       <c r="C247" t="n">
-        <v>2.339715061858471</v>
+        <v>2.322172594299105</v>
       </c>
       <c r="D247" t="n">
         <v>1</v>
@@ -3901,13 +3901,13 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2.312988079371175</v>
+        <v>2.35831578510318</v>
       </c>
       <c r="B248" t="n">
-        <v>2.609562172546588</v>
+        <v>2.601199460408147</v>
       </c>
       <c r="C248" t="n">
-        <v>2.305175203452454</v>
+        <v>2.313280746316857</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -3915,13 +3915,13 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.343217780935908</v>
+        <v>2.521650182307318</v>
       </c>
       <c r="B249" t="n">
-        <v>2.597258907339963</v>
+        <v>2.632037575965047</v>
       </c>
       <c r="C249" t="n">
-        <v>2.314603181695067</v>
+        <v>2.334158100554153</v>
       </c>
       <c r="D249" t="n">
         <v>1</v>
@@ -3929,13 +3929,13 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.475048273226574</v>
+        <v>2.225589002488578</v>
       </c>
       <c r="B250" t="n">
-        <v>2.590313065970857</v>
+        <v>2.613516570559301</v>
       </c>
       <c r="C250" t="n">
-        <v>2.311097828853048</v>
+        <v>2.322950410457262</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -3943,13 +3943,13 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.31432081355386</v>
+        <v>2.509584719784167</v>
       </c>
       <c r="B251" t="n">
-        <v>2.608246123616688</v>
+        <v>2.604273253714022</v>
       </c>
       <c r="C251" t="n">
-        <v>2.307178360136906</v>
+        <v>2.32921412006808</v>
       </c>
       <c r="D251" t="n">
         <v>1</v>
@@ -3957,13 +3957,13 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2.338627593445251</v>
+        <v>2.444268134940016</v>
       </c>
       <c r="B252" t="n">
-        <v>2.596666875217084</v>
+        <v>2.61789504281947</v>
       </c>
       <c r="C252" t="n">
-        <v>2.315821309844115</v>
+        <v>2.33546031665592</v>
       </c>
       <c r="D252" t="n">
         <v>1</v>
@@ -3971,13 +3971,13 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.551017156521538</v>
+        <v>2.36395704180833</v>
       </c>
       <c r="B253" t="n">
-        <v>2.612670138264247</v>
+        <v>2.606148941186316</v>
       </c>
       <c r="C253" t="n">
-        <v>2.311148023709785</v>
+        <v>2.321227150253932</v>
       </c>
       <c r="D253" t="n">
         <v>1</v>
@@ -3985,13 +3985,13 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.479995219455367</v>
+        <v>2.174354963923126</v>
       </c>
       <c r="B254" t="n">
-        <v>2.627891471004731</v>
+        <v>2.604163181394557</v>
       </c>
       <c r="C254" t="n">
-        <v>2.336163944349175</v>
+        <v>2.331430600281168</v>
       </c>
       <c r="D254" t="n">
         <v>1</v>
@@ -3999,13 +3999,13 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.342986144036</v>
+        <v>2.272214919504697</v>
       </c>
       <c r="B255" t="n">
-        <v>2.598046731328442</v>
+        <v>2.598127171631953</v>
       </c>
       <c r="C255" t="n">
-        <v>2.313518968788967</v>
+        <v>2.316659168440653</v>
       </c>
       <c r="D255" t="n">
         <v>1</v>
@@ -4013,13 +4013,13 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.317601464044968</v>
+        <v>2.248346195878862</v>
       </c>
       <c r="B256" t="n">
-        <v>2.610276751077946</v>
+        <v>2.616139312389496</v>
       </c>
       <c r="C256" t="n">
-        <v>2.31877320230948</v>
+        <v>2.317269018007296</v>
       </c>
       <c r="D256" t="n">
         <v>1</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2.247647022582755</v>
+        <v>2.320743090216764</v>
       </c>
       <c r="B257" t="n">
-        <v>2.616870247067896</v>
+        <v>2.596511729781644</v>
       </c>
       <c r="C257" t="n">
-        <v>2.316169603367987</v>
+        <v>2.332360484618597</v>
       </c>
       <c r="D257" t="n">
         <v>1</v>
@@ -4041,13 +4041,13 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2.443255614432811</v>
+        <v>2.360288651278131</v>
       </c>
       <c r="B258" t="n">
-        <v>2.617611739866719</v>
+        <v>2.5869728719918</v>
       </c>
       <c r="C258" t="n">
-        <v>2.335440375553014</v>
+        <v>2.33794263059058</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
@@ -4055,13 +4055,13 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2.148354282602178</v>
+        <v>2.521418876506393</v>
       </c>
       <c r="B259" t="n">
-        <v>2.598176319524151</v>
+        <v>2.632028640293739</v>
       </c>
       <c r="C259" t="n">
-        <v>2.328170165803279</v>
+        <v>2.334174540958966</v>
       </c>
       <c r="D259" t="n">
         <v>1</v>
@@ -4069,13 +4069,13 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2.555013304048849</v>
+        <v>2.1495533264256</v>
       </c>
       <c r="B260" t="n">
-        <v>2.583834849119656</v>
+        <v>2.593159634318052</v>
       </c>
       <c r="C260" t="n">
-        <v>2.321268570383195</v>
+        <v>2.331038552782764</v>
       </c>
       <c r="D260" t="n">
         <v>1</v>
@@ -4083,13 +4083,13 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.322847120045222</v>
+        <v>2.354852084469914</v>
       </c>
       <c r="B261" t="n">
-        <v>2.595329387792696</v>
+        <v>2.600657693220766</v>
       </c>
       <c r="C261" t="n">
-        <v>2.332802818088229</v>
+        <v>2.309663154230511</v>
       </c>
       <c r="D261" t="n">
         <v>1</v>
@@ -4097,13 +4097,13 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.27156099325447</v>
+        <v>2.194463200487375</v>
       </c>
       <c r="B262" t="n">
-        <v>2.598311806780623</v>
+        <v>2.608570505626138</v>
       </c>
       <c r="C262" t="n">
-        <v>2.316922181636225</v>
+        <v>2.332593454796684</v>
       </c>
       <c r="D262" t="n">
         <v>1</v>
@@ -4111,13 +4111,13 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2.548865614269036</v>
+        <v>2.49309320567786</v>
       </c>
       <c r="B263" t="n">
-        <v>2.6164103799097</v>
+        <v>2.63006260130806</v>
       </c>
       <c r="C263" t="n">
-        <v>2.315372578274447</v>
+        <v>2.335307031589789</v>
       </c>
       <c r="D263" t="n">
         <v>1</v>
@@ -4125,13 +4125,13 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.163252863301885</v>
+        <v>2.344454404230574</v>
       </c>
       <c r="B264" t="n">
-        <v>2.60344078932247</v>
+        <v>2.599150382046006</v>
       </c>
       <c r="C264" t="n">
-        <v>2.329635389018553</v>
+        <v>2.315248896749493</v>
       </c>
       <c r="D264" t="n">
         <v>1</v>
@@ -4139,13 +4139,13 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2.515694440815383</v>
+        <v>2.368237084233781</v>
       </c>
       <c r="B265" t="n">
-        <v>2.63076096705352</v>
+        <v>2.596896723265437</v>
       </c>
       <c r="C265" t="n">
-        <v>2.324137278784358</v>
+        <v>2.333169836632059</v>
       </c>
       <c r="D265" t="n">
         <v>1</v>
@@ -4153,13 +4153,13 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2.355560436641325</v>
+        <v>2.321662438173204</v>
       </c>
       <c r="B266" t="n">
-        <v>2.604259649755906</v>
+        <v>2.607012609908372</v>
       </c>
       <c r="C266" t="n">
-        <v>2.320380469838801</v>
+        <v>2.304522026619991</v>
       </c>
       <c r="D266" t="n">
         <v>1</v>
@@ -4167,13 +4167,13 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2.337324425895572</v>
+        <v>2.384929074299729</v>
       </c>
       <c r="B267" t="n">
-        <v>2.596366593472874</v>
+        <v>2.609002566616586</v>
       </c>
       <c r="C267" t="n">
-        <v>2.32345433122677</v>
+        <v>2.304960692404214</v>
       </c>
       <c r="D267" t="n">
         <v>1</v>
@@ -4181,13 +4181,13 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.375782263431157</v>
+        <v>2.530507502021377</v>
       </c>
       <c r="B268" t="n">
-        <v>2.609069677665532</v>
+        <v>2.624489974822793</v>
       </c>
       <c r="C268" t="n">
-        <v>2.315920119569764</v>
+        <v>2.325813844930588</v>
       </c>
       <c r="D268" t="n">
         <v>1</v>
@@ -4195,13 +4195,13 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.270330029794056</v>
+        <v>2.341756955749732</v>
       </c>
       <c r="B269" t="n">
-        <v>2.599067653370693</v>
+        <v>2.59697603082474</v>
       </c>
       <c r="C269" t="n">
-        <v>2.318024361654842</v>
+        <v>2.320197776970792</v>
       </c>
       <c r="D269" t="n">
         <v>1</v>
@@ -4209,13 +4209,13 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2.135393706938346</v>
+        <v>2.310687840319829</v>
       </c>
       <c r="B270" t="n">
-        <v>2.588332817617165</v>
+        <v>2.612770099727741</v>
       </c>
       <c r="C270" t="n">
-        <v>2.329627322529726</v>
+        <v>2.302696061945768</v>
       </c>
       <c r="D270" t="n">
         <v>1</v>
@@ -4223,13 +4223,13 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2.335600350891784</v>
+        <v>2.318438832450204</v>
       </c>
       <c r="B271" t="n">
-        <v>2.598974750512574</v>
+        <v>2.604455863294835</v>
       </c>
       <c r="C271" t="n">
-        <v>2.312441609742492</v>
+        <v>2.313656429839066</v>
       </c>
       <c r="D271" t="n">
         <v>1</v>
@@ -4237,13 +4237,13 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.386191436791883</v>
+        <v>2.103603372551561</v>
       </c>
       <c r="B272" t="n">
-        <v>2.599486565147162</v>
+        <v>2.579737473518436</v>
       </c>
       <c r="C272" t="n">
-        <v>2.305580744381705</v>
+        <v>2.331829917816019</v>
       </c>
       <c r="D272" t="n">
         <v>1</v>
@@ -4251,13 +4251,13 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.148592916014892</v>
+        <v>2.153052746301528</v>
       </c>
       <c r="B273" t="n">
-        <v>2.600076684385361</v>
+        <v>2.604032610805006</v>
       </c>
       <c r="C273" t="n">
-        <v>2.332404316756853</v>
+        <v>2.332204102202804</v>
       </c>
       <c r="D273" t="n">
         <v>1</v>
@@ -4265,15 +4265,29 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.340946153106814</v>
+        <v>2.362459661184642</v>
       </c>
       <c r="B274" t="n">
-        <v>2.597367646445158</v>
+        <v>2.604541269434596</v>
       </c>
       <c r="C274" t="n">
-        <v>2.312120699467251</v>
+        <v>2.313438651342058</v>
       </c>
       <c r="D274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>2.282862580705583</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2.599481724137618</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2.315837736536717</v>
+      </c>
+      <c r="D275" t="n">
         <v>1</v>
       </c>
     </row>
